--- a/BackTest/2019-10-31 BackTest REP.xlsx
+++ b/BackTest/2019-10-31 BackTest REP.xlsx
@@ -451,20 +451,14 @@
         <v>10323.33333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>10320</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>10353.33333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>10360</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>10363.33333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>10390</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>10336.66666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>10290</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>10276.66666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>10280</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>10260</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>10320</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>10286.66666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>10330</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>10326.66666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>10330</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>10330</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>10330</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>10333.33333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>10330</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>10340</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>10340</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>10350</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>10350</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>10356.66666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>10360</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>10370</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>10360</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1071,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1149,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1188,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1227,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1262,15 +1154,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1301,15 +1189,11 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1344,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1383,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1422,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1461,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1500,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1539,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1578,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1617,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1656,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1695,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1734,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1773,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1812,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1851,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1890,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1929,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1968,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2046,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2085,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2124,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2163,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2202,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2241,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2280,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2319,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2358,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2397,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2436,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2475,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2514,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2553,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2592,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2631,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2709,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2787,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2826,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2865,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2904,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2943,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3021,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3060,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3099,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3138,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3177,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3216,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3255,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3294,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3333,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3372,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3411,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3489,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3528,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3567,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3645,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3684,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3723,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3762,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3801,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3879,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3918,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3957,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4074,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4113,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4152,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4191,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4230,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4269,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4308,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4347,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4386,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4425,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4464,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4542,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4581,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4620,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4659,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4776,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4815,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4886,18 +4406,18 @@
         <v>10386.66666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="n">
+        <v>10360</v>
+      </c>
+      <c r="K115" t="n">
+        <v>10360</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4925,16 +4445,20 @@
         <v>10380</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10390</v>
+      </c>
+      <c r="K116" t="n">
+        <v>10360</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -4964,16 +4488,20 @@
         <v>10390</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10390</v>
+      </c>
+      <c r="K117" t="n">
+        <v>10360</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -5010,11 +4538,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5042,18 +4566,18 @@
         <v>10383.33333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="n">
+        <v>10390</v>
+      </c>
+      <c r="K119" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5081,16 +4605,20 @@
         <v>10380</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10370</v>
+      </c>
+      <c r="K120" t="n">
+        <v>10390</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -5120,16 +4648,20 @@
         <v>10396.66666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10380</v>
+      </c>
+      <c r="K121" t="n">
+        <v>10390</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -5159,18 +4691,18 @@
         <v>10420</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="n">
+        <v>10440</v>
+      </c>
+      <c r="K122" t="n">
+        <v>10440</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5198,16 +4730,20 @@
         <v>10440</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10440</v>
+      </c>
+      <c r="K123" t="n">
+        <v>10440</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -5237,16 +4773,20 @@
         <v>10440</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10440</v>
+      </c>
+      <c r="K124" t="n">
+        <v>10440</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -5276,18 +4816,18 @@
         <v>10440</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="n">
+        <v>10440</v>
+      </c>
+      <c r="K125" t="n">
+        <v>10440</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5321,10 +4861,12 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>10440</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -5360,10 +4902,12 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>10440</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -5400,11 +4944,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +4979,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5478,11 +5014,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5517,11 +5049,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5556,11 +5084,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5595,11 +5119,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5634,11 +5154,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +5189,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5712,11 +5224,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5751,11 +5259,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +5294,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5829,11 +5329,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5868,11 +5364,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5907,11 +5399,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5946,11 +5434,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5985,11 +5469,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6024,11 +5504,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6063,11 +5539,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6102,11 +5574,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6141,11 +5609,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5644,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6219,11 +5679,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6258,11 +5714,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6297,11 +5749,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +5784,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6375,11 +5819,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +5854,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6453,11 +5889,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6492,11 +5924,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6531,11 +5959,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6570,11 +5994,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6609,11 +6029,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6648,11 +6064,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6687,11 +6099,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6134,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +6169,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6804,11 +6204,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +6239,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6882,11 +6274,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6921,11 +6309,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6960,11 +6344,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6999,11 +6379,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7038,11 +6414,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7077,11 +6449,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7116,11 +6484,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +6519,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7194,11 +6554,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7233,11 +6589,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7272,11 +6624,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7311,11 +6659,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7350,11 +6694,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7389,11 +6729,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7428,11 +6764,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7467,11 +6799,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7506,11 +6834,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +6869,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7584,11 +6904,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +6939,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7662,11 +6974,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7701,11 +7009,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7740,11 +7044,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +7079,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7818,11 +7114,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7857,11 +7149,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7896,11 +7184,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7935,11 +7219,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +7254,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8013,11 +7289,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +7324,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8091,11 +7359,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8130,11 +7394,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +7429,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8208,11 +7464,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8247,11 +7499,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8286,11 +7534,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8325,11 +7569,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8364,11 +7604,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8403,11 +7639,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8442,11 +7674,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8481,11 +7709,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8520,11 +7744,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8559,11 +7779,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8598,11 +7814,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8637,11 +7849,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8676,11 +7884,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8715,11 +7919,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8754,11 +7954,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8793,11 +7989,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8024,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8871,11 +8059,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8910,11 +8094,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8949,11 +8129,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8984,16 +8160,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">

--- a/BackTest/2019-10-31 BackTest REP.xlsx
+++ b/BackTest/2019-10-31 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M245"/>
+  <dimension ref="A1:M246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10320</v>
+        <v>10300</v>
       </c>
       <c r="C2" t="n">
-        <v>10330</v>
+        <v>10340</v>
       </c>
       <c r="D2" t="n">
-        <v>10330</v>
+        <v>10340</v>
       </c>
       <c r="E2" t="n">
-        <v>10320</v>
+        <v>10300</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5229</v>
+        <v>92.48288239845262</v>
       </c>
       <c r="G2" t="n">
-        <v>10323.33333333333</v>
+        <v>10331.33333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,32 +468,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10360</v>
+        <v>10320</v>
       </c>
       <c r="C3" t="n">
-        <v>10390</v>
+        <v>10330</v>
       </c>
       <c r="D3" t="n">
-        <v>10390</v>
+        <v>10330</v>
       </c>
       <c r="E3" t="n">
-        <v>10360</v>
+        <v>10320</v>
       </c>
       <c r="F3" t="n">
-        <v>267.7734</v>
+        <v>1.5229</v>
       </c>
       <c r="G3" t="n">
-        <v>10353.33333333333</v>
+        <v>10331.33333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>10340</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -503,32 +509,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C4" t="n">
         <v>10390</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10370</v>
       </c>
       <c r="D4" t="n">
         <v>10390</v>
       </c>
       <c r="E4" t="n">
-        <v>10280</v>
+        <v>10360</v>
       </c>
       <c r="F4" t="n">
-        <v>13.3516</v>
+        <v>267.7734</v>
       </c>
       <c r="G4" t="n">
-        <v>10363.33333333333</v>
+        <v>10332.16666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>10330</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10290</v>
+        <v>10390</v>
       </c>
       <c r="C5" t="n">
-        <v>10250</v>
+        <v>10370</v>
       </c>
       <c r="D5" t="n">
-        <v>10290</v>
+        <v>10390</v>
       </c>
       <c r="E5" t="n">
-        <v>10250</v>
+        <v>10280</v>
       </c>
       <c r="F5" t="n">
-        <v>98.20529999999999</v>
+        <v>13.3516</v>
       </c>
       <c r="G5" t="n">
-        <v>10336.66666666667</v>
+        <v>10332.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -563,7 +575,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +589,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10280</v>
+        <v>10290</v>
       </c>
       <c r="C6" t="n">
-        <v>10210</v>
+        <v>10250</v>
       </c>
       <c r="D6" t="n">
-        <v>10280</v>
+        <v>10290</v>
       </c>
       <c r="E6" t="n">
-        <v>10210</v>
+        <v>10250</v>
       </c>
       <c r="F6" t="n">
-        <v>395.6121</v>
+        <v>98.20529999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>10276.66666666667</v>
+        <v>10329.83333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +614,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +628,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10320</v>
+        <v>10280</v>
       </c>
       <c r="C7" t="n">
-        <v>10320</v>
+        <v>10210</v>
       </c>
       <c r="D7" t="n">
-        <v>10320</v>
+        <v>10280</v>
       </c>
       <c r="E7" t="n">
-        <v>10320</v>
+        <v>10210</v>
       </c>
       <c r="F7" t="n">
-        <v>9.101800000000001</v>
+        <v>395.6121</v>
       </c>
       <c r="G7" t="n">
-        <v>10260</v>
+        <v>10328.83333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +653,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10330</v>
+        <v>10320</v>
       </c>
       <c r="C8" t="n">
-        <v>10330</v>
+        <v>10320</v>
       </c>
       <c r="D8" t="n">
-        <v>10330</v>
+        <v>10320</v>
       </c>
       <c r="E8" t="n">
         <v>10320</v>
       </c>
       <c r="F8" t="n">
-        <v>32.44</v>
+        <v>9.101800000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>10286.66666666667</v>
+        <v>10327.83333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +692,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -687,13 +715,13 @@
         <v>10330</v>
       </c>
       <c r="E9" t="n">
-        <v>10330</v>
+        <v>10320</v>
       </c>
       <c r="F9" t="n">
-        <v>6.51</v>
+        <v>32.44</v>
       </c>
       <c r="G9" t="n">
-        <v>10326.66666666667</v>
+        <v>10326.83333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +731,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -725,10 +757,10 @@
         <v>10330</v>
       </c>
       <c r="F10" t="n">
-        <v>6.5199</v>
+        <v>6.51</v>
       </c>
       <c r="G10" t="n">
-        <v>10330</v>
+        <v>10327.66666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +770,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -751,19 +787,19 @@
         <v>10330</v>
       </c>
       <c r="C11" t="n">
-        <v>10340</v>
+        <v>10330</v>
       </c>
       <c r="D11" t="n">
-        <v>10340</v>
+        <v>10330</v>
       </c>
       <c r="E11" t="n">
         <v>10330</v>
       </c>
       <c r="F11" t="n">
-        <v>15.6423</v>
+        <v>6.5199</v>
       </c>
       <c r="G11" t="n">
-        <v>10333.33333333333</v>
+        <v>10326.66666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +809,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +823,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C12" t="n">
         <v>10340</v>
       </c>
-      <c r="C12" t="n">
-        <v>10350</v>
-      </c>
       <c r="D12" t="n">
-        <v>10350</v>
+        <v>10340</v>
       </c>
       <c r="E12" t="n">
-        <v>10340</v>
+        <v>10330</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>15.6423</v>
       </c>
       <c r="G12" t="n">
-        <v>10340</v>
+        <v>10325.83333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +848,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +862,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>10340</v>
+      </c>
+      <c r="C13" t="n">
         <v>10350</v>
       </c>
-      <c r="C13" t="n">
-        <v>10360</v>
-      </c>
       <c r="D13" t="n">
-        <v>10360</v>
+        <v>10350</v>
       </c>
       <c r="E13" t="n">
-        <v>10350</v>
+        <v>10340</v>
       </c>
       <c r="F13" t="n">
-        <v>39.541</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>10350</v>
+        <v>10327.16666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +887,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10360</v>
+        <v>10350</v>
       </c>
       <c r="C14" t="n">
         <v>10360</v>
@@ -862,13 +910,13 @@
         <v>10360</v>
       </c>
       <c r="E14" t="n">
-        <v>10360</v>
+        <v>10350</v>
       </c>
       <c r="F14" t="n">
-        <v>3.2007</v>
+        <v>39.541</v>
       </c>
       <c r="G14" t="n">
-        <v>10356.66666666667</v>
+        <v>10329</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +926,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -891,19 +943,19 @@
         <v>10360</v>
       </c>
       <c r="C15" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="D15" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="E15" t="n">
         <v>10360</v>
       </c>
       <c r="F15" t="n">
-        <v>53.457</v>
+        <v>3.2007</v>
       </c>
       <c r="G15" t="n">
-        <v>10370</v>
+        <v>10329</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +965,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +979,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10370</v>
+        <v>10360</v>
       </c>
       <c r="C16" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="D16" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="E16" t="n">
-        <v>10370</v>
+        <v>10360</v>
       </c>
       <c r="F16" t="n">
-        <v>34.77</v>
+        <v>53.457</v>
       </c>
       <c r="G16" t="n">
-        <v>10373.33333333333</v>
+        <v>10329.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +1004,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1018,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10390</v>
+        <v>10370</v>
       </c>
       <c r="C17" t="n">
-        <v>10400</v>
+        <v>10370</v>
       </c>
       <c r="D17" t="n">
-        <v>10400</v>
+        <v>10370</v>
       </c>
       <c r="E17" t="n">
-        <v>10390</v>
+        <v>10370</v>
       </c>
       <c r="F17" t="n">
-        <v>94.8</v>
+        <v>34.77</v>
       </c>
       <c r="G17" t="n">
-        <v>10386.66666666667</v>
+        <v>10329.66666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1043,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="C18" t="n">
         <v>10400</v>
@@ -1002,13 +1066,13 @@
         <v>10400</v>
       </c>
       <c r="E18" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="F18" t="n">
-        <v>42.38</v>
+        <v>94.8</v>
       </c>
       <c r="G18" t="n">
-        <v>10390</v>
+        <v>10330.33333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1082,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1096,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="C19" t="n">
-        <v>10440</v>
+        <v>10400</v>
       </c>
       <c r="D19" t="n">
-        <v>10440</v>
+        <v>10400</v>
       </c>
       <c r="E19" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="F19" t="n">
-        <v>724.4429</v>
+        <v>42.38</v>
       </c>
       <c r="G19" t="n">
-        <v>10413.33333333333</v>
+        <v>10331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1121,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="C20" t="n">
         <v>10440</v>
@@ -1072,13 +1144,13 @@
         <v>10440</v>
       </c>
       <c r="E20" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="F20" t="n">
-        <v>80.491</v>
+        <v>724.4429</v>
       </c>
       <c r="G20" t="n">
-        <v>10426.66666666667</v>
+        <v>10332.33333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1160,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1110,10 +1186,10 @@
         <v>10440</v>
       </c>
       <c r="F21" t="n">
-        <v>4.0599</v>
+        <v>80.491</v>
       </c>
       <c r="G21" t="n">
-        <v>10440</v>
+        <v>10333.66666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1199,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1145,10 +1225,10 @@
         <v>10440</v>
       </c>
       <c r="F22" t="n">
-        <v>143.7241</v>
+        <v>4.0599</v>
       </c>
       <c r="G22" t="n">
-        <v>10440</v>
+        <v>10334.83333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,10 +1238,12 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1180,10 +1262,10 @@
         <v>10440</v>
       </c>
       <c r="F23" t="n">
-        <v>102.6138</v>
+        <v>143.7241</v>
       </c>
       <c r="G23" t="n">
-        <v>10440</v>
+        <v>10336.16666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1285,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="C24" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="D24" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="E24" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="F24" t="n">
-        <v>64.4893</v>
+        <v>102.6138</v>
       </c>
       <c r="G24" t="n">
-        <v>10436.66666666667</v>
+        <v>10337.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1323,19 @@
         <v>10430</v>
       </c>
       <c r="C25" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="D25" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="E25" t="n">
         <v>10430</v>
       </c>
       <c r="F25" t="n">
-        <v>18.351</v>
+        <v>64.4893</v>
       </c>
       <c r="G25" t="n">
-        <v>10436.66666666667</v>
+        <v>10338.66666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1355,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="C26" t="n">
         <v>10440</v>
@@ -1282,13 +1364,13 @@
         <v>10440</v>
       </c>
       <c r="E26" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="F26" t="n">
-        <v>14.8</v>
+        <v>18.351</v>
       </c>
       <c r="G26" t="n">
-        <v>10436.66666666667</v>
+        <v>10341</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1402,10 @@
         <v>10440</v>
       </c>
       <c r="F27" t="n">
-        <v>4.048</v>
+        <v>14.8</v>
       </c>
       <c r="G27" t="n">
-        <v>10440</v>
+        <v>10343.16666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1425,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="C28" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="D28" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="E28" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="F28" t="n">
-        <v>49.516</v>
+        <v>4.048</v>
       </c>
       <c r="G28" t="n">
-        <v>10436.66666666667</v>
+        <v>10345</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1472,10 @@
         <v>10430</v>
       </c>
       <c r="F29" t="n">
-        <v>17.3105</v>
+        <v>49.516</v>
       </c>
       <c r="G29" t="n">
-        <v>10433.33333333333</v>
+        <v>10346.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1495,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="C30" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="D30" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="E30" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>17.3105</v>
       </c>
       <c r="G30" t="n">
-        <v>10423.33333333333</v>
+        <v>10348.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1530,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10400</v>
+        <v>10410</v>
       </c>
       <c r="C31" t="n">
-        <v>10400</v>
+        <v>10410</v>
       </c>
       <c r="D31" t="n">
-        <v>10400</v>
+        <v>10410</v>
       </c>
       <c r="E31" t="n">
-        <v>10400</v>
+        <v>10410</v>
       </c>
       <c r="F31" t="n">
-        <v>4.0521</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>10413.33333333333</v>
+        <v>10349.16666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1577,10 @@
         <v>10400</v>
       </c>
       <c r="F32" t="n">
-        <v>170.7889</v>
+        <v>4.0521</v>
       </c>
       <c r="G32" t="n">
-        <v>10403.33333333333</v>
+        <v>10349.66666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1612,10 @@
         <v>10400</v>
       </c>
       <c r="F33" t="n">
-        <v>33.378</v>
+        <v>170.7889</v>
       </c>
       <c r="G33" t="n">
-        <v>10400</v>
+        <v>10350.16666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1647,10 @@
         <v>10400</v>
       </c>
       <c r="F34" t="n">
-        <v>25.0109</v>
+        <v>33.378</v>
       </c>
       <c r="G34" t="n">
-        <v>10400</v>
+        <v>10350.66666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1682,10 @@
         <v>10400</v>
       </c>
       <c r="F35" t="n">
-        <v>9.143000000000001</v>
+        <v>25.0109</v>
       </c>
       <c r="G35" t="n">
-        <v>10400</v>
+        <v>10351.16666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1717,10 @@
         <v>10400</v>
       </c>
       <c r="F36" t="n">
-        <v>34.8738</v>
+        <v>9.143000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>10400</v>
+        <v>10351.66666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1752,10 @@
         <v>10400</v>
       </c>
       <c r="F37" t="n">
-        <v>40.925</v>
+        <v>34.8738</v>
       </c>
       <c r="G37" t="n">
-        <v>10400</v>
+        <v>10353</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1787,10 @@
         <v>10400</v>
       </c>
       <c r="F38" t="n">
-        <v>27.604</v>
+        <v>40.925</v>
       </c>
       <c r="G38" t="n">
-        <v>10400</v>
+        <v>10356</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1813,19 @@
         <v>10400</v>
       </c>
       <c r="C39" t="n">
-        <v>10420</v>
+        <v>10400</v>
       </c>
       <c r="D39" t="n">
-        <v>10420</v>
+        <v>10400</v>
       </c>
       <c r="E39" t="n">
         <v>10400</v>
       </c>
       <c r="F39" t="n">
-        <v>206.3151</v>
+        <v>27.604</v>
       </c>
       <c r="G39" t="n">
-        <v>10406.66666666667</v>
+        <v>10357.33333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1845,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C40" t="n">
         <v>10420</v>
       </c>
-      <c r="C40" t="n">
-        <v>10440</v>
-      </c>
       <c r="D40" t="n">
-        <v>10440</v>
+        <v>10420</v>
       </c>
       <c r="E40" t="n">
-        <v>10420</v>
+        <v>10400</v>
       </c>
       <c r="F40" t="n">
-        <v>70</v>
+        <v>206.3151</v>
       </c>
       <c r="G40" t="n">
-        <v>10420</v>
+        <v>10358.83333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10440</v>
+        <v>10420</v>
       </c>
       <c r="C41" t="n">
         <v>10440</v>
@@ -1807,13 +1889,13 @@
         <v>10440</v>
       </c>
       <c r="E41" t="n">
-        <v>10440</v>
+        <v>10420</v>
       </c>
       <c r="F41" t="n">
-        <v>30.4032</v>
+        <v>70</v>
       </c>
       <c r="G41" t="n">
-        <v>10433.33333333333</v>
+        <v>10361</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1927,10 @@
         <v>10440</v>
       </c>
       <c r="F42" t="n">
-        <v>116.58</v>
+        <v>30.4032</v>
       </c>
       <c r="G42" t="n">
-        <v>10440</v>
+        <v>10363</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1962,10 @@
         <v>10440</v>
       </c>
       <c r="F43" t="n">
-        <v>8.4102</v>
+        <v>116.58</v>
       </c>
       <c r="G43" t="n">
-        <v>10440</v>
+        <v>10364.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1997,10 @@
         <v>10440</v>
       </c>
       <c r="F44" t="n">
-        <v>6.086</v>
+        <v>8.4102</v>
       </c>
       <c r="G44" t="n">
-        <v>10440</v>
+        <v>10366</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +2032,10 @@
         <v>10440</v>
       </c>
       <c r="F45" t="n">
-        <v>80.0399</v>
+        <v>6.086</v>
       </c>
       <c r="G45" t="n">
-        <v>10440</v>
+        <v>10367.33333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2067,10 @@
         <v>10440</v>
       </c>
       <c r="F46" t="n">
-        <v>76.65309999999999</v>
+        <v>80.0399</v>
       </c>
       <c r="G46" t="n">
-        <v>10440</v>
+        <v>10368.33333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2102,10 @@
         <v>10440</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3927</v>
+        <v>76.65309999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>10440</v>
+        <v>10370.83333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2137,10 @@
         <v>10440</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01</v>
+        <v>0.3927</v>
       </c>
       <c r="G48" t="n">
-        <v>10440</v>
+        <v>10373.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2172,10 @@
         <v>10440</v>
       </c>
       <c r="F49" t="n">
-        <v>9.9999</v>
+        <v>0.01</v>
       </c>
       <c r="G49" t="n">
-        <v>10440</v>
+        <v>10376.66666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2207,10 @@
         <v>10440</v>
       </c>
       <c r="F50" t="n">
-        <v>22.4</v>
+        <v>9.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>10440</v>
+        <v>10378</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2242,10 @@
         <v>10440</v>
       </c>
       <c r="F51" t="n">
-        <v>22.3226</v>
+        <v>22.4</v>
       </c>
       <c r="G51" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2265,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="C52" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="D52" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="E52" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="F52" t="n">
-        <v>44.1684</v>
+        <v>22.3226</v>
       </c>
       <c r="G52" t="n">
-        <v>10430</v>
+        <v>10382.16666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2300,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="C53" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="D53" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="E53" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="F53" t="n">
-        <v>17.1985</v>
+        <v>44.1684</v>
       </c>
       <c r="G53" t="n">
-        <v>10430</v>
+        <v>10383.83333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2338,19 @@
         <v>10440</v>
       </c>
       <c r="C54" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="D54" t="n">
         <v>10440</v>
       </c>
       <c r="E54" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="F54" t="n">
-        <v>3.8485</v>
+        <v>17.1985</v>
       </c>
       <c r="G54" t="n">
-        <v>10420</v>
+        <v>10386.33333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2382,10 @@
         <v>10410</v>
       </c>
       <c r="F55" t="n">
-        <v>10.4714</v>
+        <v>3.8485</v>
       </c>
       <c r="G55" t="n">
-        <v>10420</v>
+        <v>10388.33333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2408,19 @@
         <v>10440</v>
       </c>
       <c r="C56" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="D56" t="n">
         <v>10440</v>
       </c>
       <c r="E56" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>10.4714</v>
       </c>
       <c r="G56" t="n">
-        <v>10420</v>
+        <v>10390</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2440,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="C57" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="D57" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="E57" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>10420</v>
+        <v>10392.16666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2475,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="C58" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="D58" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="E58" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="F58" t="n">
-        <v>109.6779</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>10430</v>
+        <v>10394.66666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2437,13 +2519,13 @@
         <v>10440</v>
       </c>
       <c r="E59" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="F59" t="n">
-        <v>73.5822</v>
+        <v>109.6779</v>
       </c>
       <c r="G59" t="n">
-        <v>10430</v>
+        <v>10397.33333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2472,13 +2554,13 @@
         <v>10440</v>
       </c>
       <c r="E60" t="n">
-        <v>10440</v>
+        <v>10410</v>
       </c>
       <c r="F60" t="n">
-        <v>115.1462</v>
+        <v>73.5822</v>
       </c>
       <c r="G60" t="n">
-        <v>10440</v>
+        <v>10399.83333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2592,10 @@
         <v>10440</v>
       </c>
       <c r="F61" t="n">
-        <v>30.1472</v>
+        <v>115.1462</v>
       </c>
       <c r="G61" t="n">
-        <v>10440</v>
+        <v>10402.16666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2627,10 @@
         <v>10440</v>
       </c>
       <c r="F62" t="n">
-        <v>24.065</v>
+        <v>30.1472</v>
       </c>
       <c r="G62" t="n">
-        <v>10440</v>
+        <v>10403.83333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2662,10 @@
         <v>10440</v>
       </c>
       <c r="F63" t="n">
-        <v>49.1539</v>
+        <v>24.065</v>
       </c>
       <c r="G63" t="n">
-        <v>10440</v>
+        <v>10405.66666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2697,10 @@
         <v>10440</v>
       </c>
       <c r="F64" t="n">
-        <v>4.351</v>
+        <v>49.1539</v>
       </c>
       <c r="G64" t="n">
-        <v>10440</v>
+        <v>10406.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2732,10 @@
         <v>10440</v>
       </c>
       <c r="F65" t="n">
-        <v>47.8994</v>
+        <v>4.351</v>
       </c>
       <c r="G65" t="n">
-        <v>10440</v>
+        <v>10407.66666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2767,10 @@
         <v>10440</v>
       </c>
       <c r="F66" t="n">
-        <v>294.5734</v>
+        <v>47.8994</v>
       </c>
       <c r="G66" t="n">
-        <v>10440</v>
+        <v>10410.83333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2790,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="C67" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="D67" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="E67" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1751</v>
+        <v>294.5734</v>
       </c>
       <c r="G67" t="n">
-        <v>10460</v>
+        <v>10414.66666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2837,10 @@
         <v>10500</v>
       </c>
       <c r="F68" t="n">
-        <v>7.9576</v>
+        <v>0.1751</v>
       </c>
       <c r="G68" t="n">
-        <v>10480</v>
+        <v>10417.66666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2860,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="C69" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="D69" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="E69" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="F69" t="n">
-        <v>18.9874</v>
+        <v>7.9576</v>
       </c>
       <c r="G69" t="n">
-        <v>10486.66666666667</v>
+        <v>10420.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2898,19 @@
         <v>10460</v>
       </c>
       <c r="C70" t="n">
-        <v>10450</v>
+        <v>10460</v>
       </c>
       <c r="D70" t="n">
         <v>10460</v>
       </c>
       <c r="E70" t="n">
-        <v>10450</v>
+        <v>10460</v>
       </c>
       <c r="F70" t="n">
-        <v>50.0234</v>
+        <v>18.9874</v>
       </c>
       <c r="G70" t="n">
-        <v>10470</v>
+        <v>10422.66666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2933,19 @@
         <v>10460</v>
       </c>
       <c r="C71" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="D71" t="n">
         <v>10460</v>
       </c>
       <c r="E71" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="F71" t="n">
-        <v>14.81</v>
+        <v>50.0234</v>
       </c>
       <c r="G71" t="n">
-        <v>10456.66666666667</v>
+        <v>10424.66666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2965,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10440</v>
+        <v>10460</v>
       </c>
       <c r="C72" t="n">
-        <v>10440</v>
+        <v>10460</v>
       </c>
       <c r="D72" t="n">
-        <v>10440</v>
+        <v>10460</v>
       </c>
       <c r="E72" t="n">
-        <v>10440</v>
+        <v>10460</v>
       </c>
       <c r="F72" t="n">
-        <v>44.25</v>
+        <v>14.81</v>
       </c>
       <c r="G72" t="n">
-        <v>10450</v>
+        <v>10426.66666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +3003,19 @@
         <v>10440</v>
       </c>
       <c r="C73" t="n">
-        <v>10450</v>
+        <v>10440</v>
       </c>
       <c r="D73" t="n">
-        <v>10450</v>
+        <v>10440</v>
       </c>
       <c r="E73" t="n">
         <v>10440</v>
       </c>
       <c r="F73" t="n">
-        <v>10.1472</v>
+        <v>44.25</v>
       </c>
       <c r="G73" t="n">
-        <v>10450</v>
+        <v>10428.16666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3035,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10460</v>
+        <v>10440</v>
       </c>
       <c r="C74" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="D74" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="E74" t="n">
-        <v>10460</v>
+        <v>10440</v>
       </c>
       <c r="F74" t="n">
-        <v>7.9377</v>
+        <v>10.1472</v>
       </c>
       <c r="G74" t="n">
-        <v>10450</v>
+        <v>10429.66666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3070,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10500</v>
+        <v>10460</v>
       </c>
       <c r="C75" t="n">
-        <v>10500</v>
+        <v>10460</v>
       </c>
       <c r="D75" t="n">
-        <v>10500</v>
+        <v>10460</v>
       </c>
       <c r="E75" t="n">
-        <v>10490</v>
+        <v>10460</v>
       </c>
       <c r="F75" t="n">
-        <v>71</v>
+        <v>7.9377</v>
       </c>
       <c r="G75" t="n">
-        <v>10470</v>
+        <v>10431.33333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3105,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10510</v>
+        <v>10500</v>
       </c>
       <c r="C76" t="n">
-        <v>10510</v>
+        <v>10500</v>
       </c>
       <c r="D76" t="n">
-        <v>10510</v>
+        <v>10500</v>
       </c>
       <c r="E76" t="n">
-        <v>10510</v>
+        <v>10490</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G76" t="n">
-        <v>10490</v>
+        <v>10433.16666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3152,10 @@
         <v>10510</v>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>10506.66666666667</v>
+        <v>10435.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3178,19 @@
         <v>10510</v>
       </c>
       <c r="C78" t="n">
-        <v>10520</v>
+        <v>10510</v>
       </c>
       <c r="D78" t="n">
-        <v>10530</v>
+        <v>10510</v>
       </c>
       <c r="E78" t="n">
-        <v>10480</v>
+        <v>10510</v>
       </c>
       <c r="F78" t="n">
-        <v>136.0202</v>
+        <v>30</v>
       </c>
       <c r="G78" t="n">
-        <v>10513.33333333333</v>
+        <v>10437.33333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>10510</v>
+      </c>
+      <c r="C79" t="n">
         <v>10520</v>
       </c>
-      <c r="C79" t="n">
-        <v>10500</v>
-      </c>
       <c r="D79" t="n">
-        <v>10520</v>
+        <v>10530</v>
       </c>
       <c r="E79" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="F79" t="n">
-        <v>68.783</v>
+        <v>136.0202</v>
       </c>
       <c r="G79" t="n">
-        <v>10510</v>
+        <v>10439.33333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3245,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10500</v>
+        <v>10520</v>
       </c>
       <c r="C80" t="n">
         <v>10500</v>
       </c>
       <c r="D80" t="n">
-        <v>10500</v>
+        <v>10520</v>
       </c>
       <c r="E80" t="n">
         <v>10470</v>
       </c>
       <c r="F80" t="n">
-        <v>54.7</v>
+        <v>68.783</v>
       </c>
       <c r="G80" t="n">
-        <v>10506.66666666667</v>
+        <v>10440.33333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3280,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="C81" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="D81" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="E81" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="F81" t="n">
-        <v>7.4009</v>
+        <v>54.7</v>
       </c>
       <c r="G81" t="n">
-        <v>10496.66666666667</v>
+        <v>10441.33333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3315,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="C82" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="D82" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="E82" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01</v>
+        <v>7.4009</v>
       </c>
       <c r="G82" t="n">
-        <v>10496.66666666667</v>
+        <v>10442.16666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3350,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10520</v>
+        <v>10500</v>
       </c>
       <c r="C83" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="D83" t="n">
-        <v>10550</v>
+        <v>10500</v>
       </c>
       <c r="E83" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="F83" t="n">
-        <v>98.15260000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G83" t="n">
-        <v>10493.33333333333</v>
+        <v>10443.16666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3385,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>10520</v>
+      </c>
+      <c r="C84" t="n">
         <v>10490</v>
       </c>
-      <c r="C84" t="n">
-        <v>10520</v>
-      </c>
       <c r="D84" t="n">
-        <v>10520</v>
+        <v>10550</v>
       </c>
       <c r="E84" t="n">
-        <v>10480</v>
+        <v>10490</v>
       </c>
       <c r="F84" t="n">
-        <v>14.0314</v>
+        <v>98.15260000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>10503.33333333333</v>
+        <v>10444</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3420,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10510</v>
+        <v>10490</v>
       </c>
       <c r="C85" t="n">
-        <v>10530</v>
+        <v>10520</v>
       </c>
       <c r="D85" t="n">
-        <v>10540</v>
+        <v>10520</v>
       </c>
       <c r="E85" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="F85" t="n">
-        <v>46.4063</v>
+        <v>14.0314</v>
       </c>
       <c r="G85" t="n">
-        <v>10513.33333333333</v>
+        <v>10445.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3455,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>10510</v>
+      </c>
+      <c r="C86" t="n">
         <v>10530</v>
       </c>
-      <c r="C86" t="n">
-        <v>10490</v>
-      </c>
       <c r="D86" t="n">
-        <v>10530</v>
+        <v>10540</v>
       </c>
       <c r="E86" t="n">
         <v>10470</v>
       </c>
       <c r="F86" t="n">
-        <v>7.03</v>
+        <v>46.4063</v>
       </c>
       <c r="G86" t="n">
-        <v>10513.33333333333</v>
+        <v>10447</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3490,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10480</v>
+        <v>10530</v>
       </c>
       <c r="C87" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="D87" t="n">
-        <v>10480</v>
+        <v>10530</v>
       </c>
       <c r="E87" t="n">
         <v>10470</v>
       </c>
       <c r="F87" t="n">
-        <v>14</v>
+        <v>7.03</v>
       </c>
       <c r="G87" t="n">
-        <v>10496.66666666667</v>
+        <v>10447.83333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3528,19 @@
         <v>10480</v>
       </c>
       <c r="C88" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="D88" t="n">
-        <v>10500</v>
+        <v>10480</v>
       </c>
       <c r="E88" t="n">
-        <v>10480</v>
+        <v>10470</v>
       </c>
       <c r="F88" t="n">
-        <v>7.0267</v>
+        <v>14</v>
       </c>
       <c r="G88" t="n">
-        <v>10486.66666666667</v>
+        <v>10448.33333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3572,10 @@
         <v>10480</v>
       </c>
       <c r="F89" t="n">
-        <v>7.0233</v>
+        <v>7.0267</v>
       </c>
       <c r="G89" t="n">
-        <v>10490</v>
+        <v>10449.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,7 +3595,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="C90" t="n">
         <v>10500</v>
@@ -3522,13 +3604,13 @@
         <v>10500</v>
       </c>
       <c r="E90" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="F90" t="n">
-        <v>1.0147</v>
+        <v>7.0233</v>
       </c>
       <c r="G90" t="n">
-        <v>10500</v>
+        <v>10450.66666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3630,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="C91" t="n">
         <v>10500</v>
@@ -3557,13 +3639,13 @@
         <v>10500</v>
       </c>
       <c r="E91" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="F91" t="n">
-        <v>15.5726</v>
+        <v>1.0147</v>
       </c>
       <c r="G91" t="n">
-        <v>10500</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3677,10 @@
         <v>10500</v>
       </c>
       <c r="F92" t="n">
-        <v>55.3838</v>
+        <v>15.5726</v>
       </c>
       <c r="G92" t="n">
-        <v>10500</v>
+        <v>10453.83333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3700,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="C93" t="n">
-        <v>10480</v>
+        <v>10500</v>
       </c>
       <c r="D93" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="E93" t="n">
-        <v>10480</v>
+        <v>10500</v>
       </c>
       <c r="F93" t="n">
-        <v>13.6923</v>
+        <v>55.3838</v>
       </c>
       <c r="G93" t="n">
-        <v>10493.33333333333</v>
+        <v>10455.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3735,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="C94" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="D94" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="E94" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01</v>
+        <v>13.6923</v>
       </c>
       <c r="G94" t="n">
-        <v>10483.33333333333</v>
+        <v>10456.83333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3770,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10450</v>
+        <v>10470</v>
       </c>
       <c r="C95" t="n">
-        <v>10450</v>
+        <v>10470</v>
       </c>
       <c r="D95" t="n">
-        <v>10450</v>
+        <v>10470</v>
       </c>
       <c r="E95" t="n">
-        <v>10450</v>
+        <v>10470</v>
       </c>
       <c r="F95" t="n">
-        <v>4.88</v>
+        <v>0.01</v>
       </c>
       <c r="G95" t="n">
-        <v>10466.66666666667</v>
+        <v>10458</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3805,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10510</v>
+        <v>10450</v>
       </c>
       <c r="C96" t="n">
         <v>10450</v>
       </c>
       <c r="D96" t="n">
-        <v>10510</v>
+        <v>10450</v>
       </c>
       <c r="E96" t="n">
         <v>10450</v>
       </c>
       <c r="F96" t="n">
-        <v>184.3882</v>
+        <v>4.88</v>
       </c>
       <c r="G96" t="n">
-        <v>10456.66666666667</v>
+        <v>10458.83333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3840,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10500</v>
+        <v>10510</v>
       </c>
       <c r="C97" t="n">
-        <v>10500</v>
+        <v>10450</v>
       </c>
       <c r="D97" t="n">
-        <v>10500</v>
+        <v>10510</v>
       </c>
       <c r="E97" t="n">
-        <v>10500</v>
+        <v>10450</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01</v>
+        <v>184.3882</v>
       </c>
       <c r="G97" t="n">
-        <v>10466.66666666667</v>
+        <v>10459.66666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3875,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="C98" t="n">
-        <v>10440</v>
+        <v>10500</v>
       </c>
       <c r="D98" t="n">
-        <v>10460</v>
+        <v>10500</v>
       </c>
       <c r="E98" t="n">
-        <v>10440</v>
+        <v>10500</v>
       </c>
       <c r="F98" t="n">
-        <v>24.5114</v>
+        <v>0.01</v>
       </c>
       <c r="G98" t="n">
-        <v>10463.33333333333</v>
+        <v>10461.33333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3910,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10440</v>
+        <v>10460</v>
       </c>
       <c r="C99" t="n">
         <v>10440</v>
       </c>
       <c r="D99" t="n">
-        <v>10440</v>
+        <v>10460</v>
       </c>
       <c r="E99" t="n">
         <v>10440</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0012</v>
+        <v>24.5114</v>
       </c>
       <c r="G99" t="n">
-        <v>10460</v>
+        <v>10462</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3957,10 @@
         <v>10440</v>
       </c>
       <c r="F100" t="n">
-        <v>31.003</v>
+        <v>0.0012</v>
       </c>
       <c r="G100" t="n">
-        <v>10440</v>
+        <v>10462.33333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3980,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="C101" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="D101" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="E101" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="F101" t="n">
-        <v>19.8</v>
+        <v>31.003</v>
       </c>
       <c r="G101" t="n">
-        <v>10436.66666666667</v>
+        <v>10462.33333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +4018,19 @@
         <v>10430</v>
       </c>
       <c r="C102" t="n">
-        <v>10380</v>
+        <v>10430</v>
       </c>
       <c r="D102" t="n">
         <v>10430</v>
       </c>
       <c r="E102" t="n">
-        <v>10380</v>
+        <v>10430</v>
       </c>
       <c r="F102" t="n">
-        <v>180</v>
+        <v>19.8</v>
       </c>
       <c r="G102" t="n">
-        <v>10416.66666666667</v>
+        <v>10462.16666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +4053,19 @@
         <v>10430</v>
       </c>
       <c r="C103" t="n">
-        <v>10430</v>
+        <v>10380</v>
       </c>
       <c r="D103" t="n">
         <v>10430</v>
       </c>
       <c r="E103" t="n">
-        <v>10430</v>
+        <v>10380</v>
       </c>
       <c r="F103" t="n">
-        <v>9.374000000000001</v>
+        <v>180</v>
       </c>
       <c r="G103" t="n">
-        <v>10413.33333333333</v>
+        <v>10461.16666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4085,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10400</v>
+        <v>10430</v>
       </c>
       <c r="C104" t="n">
         <v>10430</v>
@@ -4012,13 +4094,13 @@
         <v>10430</v>
       </c>
       <c r="E104" t="n">
-        <v>10400</v>
+        <v>10430</v>
       </c>
       <c r="F104" t="n">
-        <v>9.390000000000001</v>
+        <v>9.374000000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>10413.33333333333</v>
+        <v>10461</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4120,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>10380</v>
+        <v>10400</v>
       </c>
       <c r="C105" t="n">
-        <v>10380</v>
+        <v>10430</v>
       </c>
       <c r="D105" t="n">
-        <v>10380</v>
+        <v>10430</v>
       </c>
       <c r="E105" t="n">
-        <v>10380</v>
+        <v>10400</v>
       </c>
       <c r="F105" t="n">
-        <v>50</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>10413.33333333333</v>
+        <v>10460.83333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4155,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10420</v>
+        <v>10380</v>
       </c>
       <c r="C106" t="n">
-        <v>10420</v>
+        <v>10380</v>
       </c>
       <c r="D106" t="n">
-        <v>10420</v>
+        <v>10380</v>
       </c>
       <c r="E106" t="n">
-        <v>10420</v>
+        <v>10380</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01</v>
+        <v>50</v>
       </c>
       <c r="G106" t="n">
-        <v>10410</v>
+        <v>10459.83333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4190,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="C107" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="D107" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="E107" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="F107" t="n">
         <v>0.01</v>
       </c>
       <c r="G107" t="n">
-        <v>10410</v>
+        <v>10459.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4225,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10390</v>
+        <v>10430</v>
       </c>
       <c r="C108" t="n">
-        <v>10420</v>
+        <v>10430</v>
       </c>
       <c r="D108" t="n">
-        <v>10420</v>
+        <v>10430</v>
       </c>
       <c r="E108" t="n">
-        <v>10380</v>
+        <v>10430</v>
       </c>
       <c r="F108" t="n">
-        <v>54.5658</v>
+        <v>0.01</v>
       </c>
       <c r="G108" t="n">
-        <v>10423.33333333333</v>
+        <v>10459.33333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4260,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>10410</v>
+        <v>10390</v>
       </c>
       <c r="C109" t="n">
-        <v>10410</v>
+        <v>10420</v>
       </c>
       <c r="D109" t="n">
-        <v>10410</v>
+        <v>10420</v>
       </c>
       <c r="E109" t="n">
-        <v>10410</v>
+        <v>10380</v>
       </c>
       <c r="F109" t="n">
-        <v>4.3512</v>
+        <v>54.5658</v>
       </c>
       <c r="G109" t="n">
-        <v>10420</v>
+        <v>10459</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4295,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>10420</v>
+        <v>10410</v>
       </c>
       <c r="C110" t="n">
-        <v>10420</v>
+        <v>10410</v>
       </c>
       <c r="D110" t="n">
-        <v>10420</v>
+        <v>10410</v>
       </c>
       <c r="E110" t="n">
-        <v>10420</v>
+        <v>10410</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01</v>
+        <v>4.3512</v>
       </c>
       <c r="G110" t="n">
-        <v>10416.66666666667</v>
+        <v>10458.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4330,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="C111" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="D111" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="E111" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="F111" t="n">
         <v>0.01</v>
       </c>
       <c r="G111" t="n">
-        <v>10420</v>
+        <v>10458.16666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4365,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="C112" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="D112" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="E112" t="n">
-        <v>10410</v>
+        <v>10430</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="G112" t="n">
-        <v>10420</v>
+        <v>10458</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,7 +4400,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10400</v>
+        <v>10410</v>
       </c>
       <c r="C113" t="n">
         <v>10410</v>
@@ -4327,13 +4409,13 @@
         <v>10410</v>
       </c>
       <c r="E113" t="n">
-        <v>10400</v>
+        <v>10410</v>
       </c>
       <c r="F113" t="n">
-        <v>30.457</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>10416.66666666667</v>
+        <v>10458</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4435,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10360</v>
+        <v>10400</v>
       </c>
       <c r="C114" t="n">
-        <v>10360</v>
+        <v>10410</v>
       </c>
       <c r="D114" t="n">
-        <v>10360</v>
+        <v>10410</v>
       </c>
       <c r="E114" t="n">
-        <v>10360</v>
+        <v>10400</v>
       </c>
       <c r="F114" t="n">
-        <v>106.9</v>
+        <v>30.457</v>
       </c>
       <c r="G114" t="n">
-        <v>10393.33333333333</v>
+        <v>10457.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,35 +4470,31 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="C115" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="D115" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="E115" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01</v>
+        <v>106.9</v>
       </c>
       <c r="G115" t="n">
-        <v>10386.66666666667</v>
+        <v>10456.66666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K115" t="n">
-        <v>10360</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4439,10 +4517,10 @@
         <v>10390</v>
       </c>
       <c r="F116" t="n">
-        <v>19.3432</v>
+        <v>0.01</v>
       </c>
       <c r="G116" t="n">
-        <v>10380</v>
+        <v>10456.33333333333</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4451,16 +4529,12 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="K116" t="n">
         <v>10360</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4482,20 +4556,18 @@
         <v>10390</v>
       </c>
       <c r="F117" t="n">
-        <v>3.494</v>
+        <v>19.3432</v>
       </c>
       <c r="G117" t="n">
-        <v>10390</v>
+        <v>10455.5</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>10390</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
         <v>10360</v>
       </c>
@@ -4525,10 +4597,10 @@
         <v>10390</v>
       </c>
       <c r="F118" t="n">
-        <v>18.2489</v>
+        <v>3.494</v>
       </c>
       <c r="G118" t="n">
-        <v>10390</v>
+        <v>10455.16666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4537,8 +4609,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>10360</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4548,35 +4626,31 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="C119" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="D119" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="E119" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="F119" t="n">
-        <v>100.06</v>
+        <v>18.2489</v>
       </c>
       <c r="G119" t="n">
-        <v>10383.33333333333</v>
+        <v>10454.33333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>10390</v>
-      </c>
-      <c r="K119" t="n">
-        <v>10390</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
@@ -4587,22 +4661,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="C120" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="D120" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="E120" t="n">
-        <v>10380</v>
+        <v>10370</v>
       </c>
       <c r="F120" t="n">
-        <v>171.8374</v>
+        <v>100.06</v>
       </c>
       <c r="G120" t="n">
-        <v>10380</v>
+        <v>10453.16666666667</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4611,16 +4685,12 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="K120" t="n">
         <v>10390</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4630,32 +4700,30 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="C121" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="D121" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="E121" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="F121" t="n">
-        <v>7.115</v>
+        <v>171.8374</v>
       </c>
       <c r="G121" t="n">
-        <v>10396.66666666667</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>10380</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>10390</v>
       </c>
@@ -4685,10 +4753,10 @@
         <v>10440</v>
       </c>
       <c r="F122" t="n">
-        <v>34.0007</v>
+        <v>7.115</v>
       </c>
       <c r="G122" t="n">
-        <v>10420</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4697,12 +4765,16 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="K122" t="n">
-        <v>10440</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
+        <v>10390</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4724,28 +4796,20 @@
         <v>10440</v>
       </c>
       <c r="F123" t="n">
-        <v>128.2829</v>
+        <v>34.0007</v>
       </c>
       <c r="G123" t="n">
-        <v>10440</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>10440</v>
-      </c>
-      <c r="K123" t="n">
-        <v>10440</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4767,28 +4831,20 @@
         <v>10440</v>
       </c>
       <c r="F124" t="n">
-        <v>16.172</v>
+        <v>128.2829</v>
       </c>
       <c r="G124" t="n">
-        <v>10440</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>10440</v>
-      </c>
-      <c r="K124" t="n">
-        <v>10440</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4810,23 +4866,19 @@
         <v>10440</v>
       </c>
       <c r="F125" t="n">
-        <v>32.815</v>
+        <v>16.172</v>
       </c>
       <c r="G125" t="n">
-        <v>10440</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>10440</v>
-      </c>
-      <c r="K125" t="n">
-        <v>10440</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
@@ -4849,10 +4901,10 @@
         <v>10440</v>
       </c>
       <c r="F126" t="n">
-        <v>98.449</v>
+        <v>32.815</v>
       </c>
       <c r="G126" t="n">
-        <v>10440</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4861,14 +4913,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>10440</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4890,10 +4936,10 @@
         <v>10440</v>
       </c>
       <c r="F127" t="n">
-        <v>239.001</v>
+        <v>98.449</v>
       </c>
       <c r="G127" t="n">
-        <v>10440</v>
+        <v>10452.16666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4902,14 +4948,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>10440</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4931,10 +4971,10 @@
         <v>10440</v>
       </c>
       <c r="F128" t="n">
-        <v>8.741</v>
+        <v>239.001</v>
       </c>
       <c r="G128" t="n">
-        <v>10440</v>
+        <v>10451.16666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4966,10 +5006,10 @@
         <v>10440</v>
       </c>
       <c r="F129" t="n">
-        <v>37.5935</v>
+        <v>8.741</v>
       </c>
       <c r="G129" t="n">
-        <v>10440</v>
+        <v>10450.16666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4989,7 +5029,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>10420</v>
+        <v>10440</v>
       </c>
       <c r="C130" t="n">
         <v>10440</v>
@@ -4998,13 +5038,13 @@
         <v>10440</v>
       </c>
       <c r="E130" t="n">
-        <v>10250</v>
+        <v>10440</v>
       </c>
       <c r="F130" t="n">
-        <v>737.0652</v>
+        <v>37.5935</v>
       </c>
       <c r="G130" t="n">
-        <v>10440</v>
+        <v>10449.83333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5024,22 +5064,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>10400</v>
+        <v>10420</v>
       </c>
       <c r="C131" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="D131" t="n">
-        <v>10410</v>
+        <v>10440</v>
       </c>
       <c r="E131" t="n">
-        <v>10400</v>
+        <v>10250</v>
       </c>
       <c r="F131" t="n">
-        <v>27.5561</v>
+        <v>737.0652</v>
       </c>
       <c r="G131" t="n">
-        <v>10430</v>
+        <v>10449.66666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5059,22 +5099,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10430</v>
+        <v>10400</v>
       </c>
       <c r="C132" t="n">
-        <v>10430</v>
+        <v>10410</v>
       </c>
       <c r="D132" t="n">
-        <v>10430</v>
+        <v>10410</v>
       </c>
       <c r="E132" t="n">
-        <v>10430</v>
+        <v>10400</v>
       </c>
       <c r="F132" t="n">
-        <v>33.16</v>
+        <v>27.5561</v>
       </c>
       <c r="G132" t="n">
-        <v>10426.66666666667</v>
+        <v>10448.83333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5106,10 +5146,10 @@
         <v>10430</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>33.16</v>
       </c>
       <c r="G133" t="n">
-        <v>10423.33333333333</v>
+        <v>10448.66666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5129,22 +5169,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="C134" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="D134" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="E134" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="F134" t="n">
-        <v>237.0706</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>10433.33333333333</v>
+        <v>10448.33333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5164,22 +5204,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="C135" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="D135" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="E135" t="n">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="F135" t="n">
-        <v>65.84</v>
+        <v>237.0706</v>
       </c>
       <c r="G135" t="n">
-        <v>10433.33333333333</v>
+        <v>10448</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5199,22 +5239,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10420</v>
+        <v>10430</v>
       </c>
       <c r="C136" t="n">
-        <v>10420</v>
+        <v>10430</v>
       </c>
       <c r="D136" t="n">
-        <v>10420</v>
+        <v>10430</v>
       </c>
       <c r="E136" t="n">
-        <v>10420</v>
+        <v>10430</v>
       </c>
       <c r="F136" t="n">
-        <v>5.76</v>
+        <v>65.84</v>
       </c>
       <c r="G136" t="n">
-        <v>10430</v>
+        <v>10446.83333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5234,22 +5274,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="C137" t="n">
-        <v>10440</v>
+        <v>10420</v>
       </c>
       <c r="D137" t="n">
-        <v>10440</v>
+        <v>10420</v>
       </c>
       <c r="E137" t="n">
-        <v>10430</v>
+        <v>10420</v>
       </c>
       <c r="F137" t="n">
-        <v>90.4717</v>
+        <v>5.76</v>
       </c>
       <c r="G137" t="n">
-        <v>10430</v>
+        <v>10445.33333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5269,7 +5309,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="C138" t="n">
         <v>10440</v>
@@ -5278,13 +5318,13 @@
         <v>10440</v>
       </c>
       <c r="E138" t="n">
-        <v>10440</v>
+        <v>10430</v>
       </c>
       <c r="F138" t="n">
-        <v>24.2677</v>
+        <v>90.4717</v>
       </c>
       <c r="G138" t="n">
-        <v>10433.33333333333</v>
+        <v>10444.16666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5316,10 +5356,10 @@
         <v>10440</v>
       </c>
       <c r="F139" t="n">
-        <v>15.611</v>
+        <v>24.2677</v>
       </c>
       <c r="G139" t="n">
-        <v>10440</v>
+        <v>10442.83333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5351,10 +5391,10 @@
         <v>10440</v>
       </c>
       <c r="F140" t="n">
-        <v>81.2336</v>
+        <v>15.611</v>
       </c>
       <c r="G140" t="n">
-        <v>10440</v>
+        <v>10441.83333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5386,10 +5426,10 @@
         <v>10440</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0001</v>
+        <v>81.2336</v>
       </c>
       <c r="G141" t="n">
-        <v>10440</v>
+        <v>10440.83333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5409,22 +5449,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="C142" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="D142" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="E142" t="n">
-        <v>10500</v>
+        <v>10440</v>
       </c>
       <c r="F142" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="G142" t="n">
-        <v>10460</v>
+        <v>10440</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5444,22 +5484,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>10440</v>
+        <v>10500</v>
       </c>
       <c r="C143" t="n">
-        <v>10410</v>
+        <v>10500</v>
       </c>
       <c r="D143" t="n">
-        <v>10440</v>
+        <v>10500</v>
       </c>
       <c r="E143" t="n">
-        <v>10410</v>
+        <v>10500</v>
       </c>
       <c r="F143" t="n">
-        <v>14.3499</v>
+        <v>0.01</v>
       </c>
       <c r="G143" t="n">
-        <v>10450</v>
+        <v>10440</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5479,22 +5519,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>10460</v>
+        <v>10440</v>
       </c>
       <c r="C144" t="n">
-        <v>10460</v>
+        <v>10410</v>
       </c>
       <c r="D144" t="n">
-        <v>10460</v>
+        <v>10440</v>
       </c>
       <c r="E144" t="n">
-        <v>10460</v>
+        <v>10410</v>
       </c>
       <c r="F144" t="n">
-        <v>3.2965</v>
+        <v>14.3499</v>
       </c>
       <c r="G144" t="n">
-        <v>10456.66666666667</v>
+        <v>10438.66666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5514,22 +5554,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>10380</v>
+        <v>10460</v>
       </c>
       <c r="C145" t="n">
-        <v>10380</v>
+        <v>10460</v>
       </c>
       <c r="D145" t="n">
-        <v>10380</v>
+        <v>10460</v>
       </c>
       <c r="E145" t="n">
-        <v>10380</v>
+        <v>10460</v>
       </c>
       <c r="F145" t="n">
-        <v>66.20189999999999</v>
+        <v>3.2965</v>
       </c>
       <c r="G145" t="n">
-        <v>10416.66666666667</v>
+        <v>10437.66666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5549,22 +5589,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="C146" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="D146" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="E146" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="F146" t="n">
-        <v>2.0008</v>
+        <v>66.20189999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>10410</v>
+        <v>10435.16666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5584,22 +5624,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>10330</v>
+        <v>10390</v>
       </c>
       <c r="C147" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="D147" t="n">
-        <v>10370</v>
+        <v>10390</v>
       </c>
       <c r="E147" t="n">
-        <v>10330</v>
+        <v>10390</v>
       </c>
       <c r="F147" t="n">
-        <v>68.9302</v>
+        <v>2.0008</v>
       </c>
       <c r="G147" t="n">
-        <v>10380</v>
+        <v>10433.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5619,22 +5659,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>10360</v>
+        <v>10330</v>
       </c>
       <c r="C148" t="n">
-        <v>10360</v>
+        <v>10370</v>
       </c>
       <c r="D148" t="n">
-        <v>10360</v>
+        <v>10370</v>
       </c>
       <c r="E148" t="n">
-        <v>10360</v>
+        <v>10330</v>
       </c>
       <c r="F148" t="n">
-        <v>4.2463</v>
+        <v>68.9302</v>
       </c>
       <c r="G148" t="n">
-        <v>10373.33333333333</v>
+        <v>10431.83333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5654,22 +5694,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>10370</v>
+        <v>10360</v>
       </c>
       <c r="C149" t="n">
-        <v>10380</v>
+        <v>10360</v>
       </c>
       <c r="D149" t="n">
-        <v>10380</v>
+        <v>10360</v>
       </c>
       <c r="E149" t="n">
-        <v>10370</v>
+        <v>10360</v>
       </c>
       <c r="F149" t="n">
-        <v>58.4577</v>
+        <v>4.2463</v>
       </c>
       <c r="G149" t="n">
-        <v>10370</v>
+        <v>10429.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5689,22 +5729,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>10340</v>
+        <v>10370</v>
       </c>
       <c r="C150" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="D150" t="n">
-        <v>10440</v>
+        <v>10380</v>
       </c>
       <c r="E150" t="n">
-        <v>10340</v>
+        <v>10370</v>
       </c>
       <c r="F150" t="n">
-        <v>36</v>
+        <v>58.4577</v>
       </c>
       <c r="G150" t="n">
-        <v>10393.33333333333</v>
+        <v>10427.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5727,19 +5767,19 @@
         <v>10340</v>
       </c>
       <c r="C151" t="n">
-        <v>10310</v>
+        <v>10440</v>
       </c>
       <c r="D151" t="n">
+        <v>10440</v>
+      </c>
+      <c r="E151" t="n">
         <v>10340</v>
       </c>
-      <c r="E151" t="n">
-        <v>10310</v>
-      </c>
       <c r="F151" t="n">
-        <v>237.0706</v>
+        <v>36</v>
       </c>
       <c r="G151" t="n">
-        <v>10376.66666666667</v>
+        <v>10426.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5759,22 +5799,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10320</v>
+        <v>10340</v>
       </c>
       <c r="C152" t="n">
-        <v>10330</v>
+        <v>10310</v>
       </c>
       <c r="D152" t="n">
-        <v>10330</v>
+        <v>10340</v>
       </c>
       <c r="E152" t="n">
-        <v>10320</v>
+        <v>10310</v>
       </c>
       <c r="F152" t="n">
-        <v>9.4221</v>
+        <v>237.0706</v>
       </c>
       <c r="G152" t="n">
-        <v>10360</v>
+        <v>10423.33333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5794,22 +5834,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>10400</v>
+        <v>10320</v>
       </c>
       <c r="C153" t="n">
-        <v>10400</v>
+        <v>10330</v>
       </c>
       <c r="D153" t="n">
-        <v>10400</v>
+        <v>10330</v>
       </c>
       <c r="E153" t="n">
-        <v>10400</v>
+        <v>10320</v>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>9.4221</v>
       </c>
       <c r="G153" t="n">
-        <v>10346.66666666667</v>
+        <v>10420.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5841,10 +5881,10 @@
         <v>10400</v>
       </c>
       <c r="F154" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G154" t="n">
-        <v>10376.66666666667</v>
+        <v>10419.16666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5876,10 +5916,10 @@
         <v>10400</v>
       </c>
       <c r="F155" t="n">
-        <v>200.42</v>
+        <v>18</v>
       </c>
       <c r="G155" t="n">
-        <v>10400</v>
+        <v>10418</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5911,10 +5951,10 @@
         <v>10400</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0002</v>
+        <v>200.42</v>
       </c>
       <c r="G156" t="n">
-        <v>10400</v>
+        <v>10417.16666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5934,7 +5974,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>10390</v>
+        <v>10400</v>
       </c>
       <c r="C157" t="n">
         <v>10400</v>
@@ -5943,13 +5983,13 @@
         <v>10400</v>
       </c>
       <c r="E157" t="n">
-        <v>10380</v>
+        <v>10400</v>
       </c>
       <c r="F157" t="n">
-        <v>265.103</v>
+        <v>0.0002</v>
       </c>
       <c r="G157" t="n">
-        <v>10400</v>
+        <v>10416.33333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5969,22 +6009,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>10410</v>
+        <v>10390</v>
       </c>
       <c r="C158" t="n">
         <v>10400</v>
       </c>
       <c r="D158" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="E158" t="n">
-        <v>10400</v>
+        <v>10380</v>
       </c>
       <c r="F158" t="n">
-        <v>2.6249</v>
+        <v>265.103</v>
       </c>
       <c r="G158" t="n">
-        <v>10400</v>
+        <v>10414.66666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6004,22 +6044,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>10360</v>
+        <v>10410</v>
       </c>
       <c r="C159" t="n">
-        <v>10360</v>
+        <v>10400</v>
       </c>
       <c r="D159" t="n">
-        <v>10360</v>
+        <v>10410</v>
       </c>
       <c r="E159" t="n">
-        <v>10360</v>
+        <v>10400</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9675</v>
+        <v>2.6249</v>
       </c>
       <c r="G159" t="n">
-        <v>10386.66666666667</v>
+        <v>10414</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6039,22 +6079,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="C160" t="n">
-        <v>10350</v>
+        <v>10360</v>
       </c>
       <c r="D160" t="n">
-        <v>10390</v>
+        <v>10360</v>
       </c>
       <c r="E160" t="n">
-        <v>10350</v>
+        <v>10360</v>
       </c>
       <c r="F160" t="n">
-        <v>38.839</v>
+        <v>0.9675</v>
       </c>
       <c r="G160" t="n">
-        <v>10370</v>
+        <v>10412.66666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6077,19 +6117,19 @@
         <v>10390</v>
       </c>
       <c r="C161" t="n">
-        <v>10390</v>
+        <v>10350</v>
       </c>
       <c r="D161" t="n">
         <v>10390</v>
       </c>
       <c r="E161" t="n">
-        <v>10390</v>
+        <v>10350</v>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>38.839</v>
       </c>
       <c r="G161" t="n">
-        <v>10366.66666666667</v>
+        <v>10411.16666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6109,22 +6149,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="C162" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="D162" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="E162" t="n">
-        <v>10400</v>
+        <v>10390</v>
       </c>
       <c r="F162" t="n">
-        <v>2.1324</v>
+        <v>20</v>
       </c>
       <c r="G162" t="n">
-        <v>10380</v>
+        <v>10410.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6144,22 +6184,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>10380</v>
+        <v>10400</v>
       </c>
       <c r="C163" t="n">
-        <v>10380</v>
+        <v>10400</v>
       </c>
       <c r="D163" t="n">
-        <v>10380</v>
+        <v>10400</v>
       </c>
       <c r="E163" t="n">
-        <v>10380</v>
+        <v>10400</v>
       </c>
       <c r="F163" t="n">
-        <v>3.1234</v>
+        <v>2.1324</v>
       </c>
       <c r="G163" t="n">
-        <v>10390</v>
+        <v>10410.83333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6191,10 +6231,10 @@
         <v>10380</v>
       </c>
       <c r="F164" t="n">
-        <v>5.5302</v>
+        <v>3.1234</v>
       </c>
       <c r="G164" t="n">
-        <v>10386.66666666667</v>
+        <v>10410</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6214,22 +6254,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="C165" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="D165" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="E165" t="n">
-        <v>10390</v>
+        <v>10380</v>
       </c>
       <c r="F165" t="n">
-        <v>6.5269</v>
+        <v>5.5302</v>
       </c>
       <c r="G165" t="n">
-        <v>10383.33333333333</v>
+        <v>10409.16666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6249,22 +6289,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>10380</v>
+        <v>10390</v>
       </c>
       <c r="C166" t="n">
-        <v>10380</v>
+        <v>10390</v>
       </c>
       <c r="D166" t="n">
-        <v>10380</v>
+        <v>10390</v>
       </c>
       <c r="E166" t="n">
-        <v>10380</v>
+        <v>10390</v>
       </c>
       <c r="F166" t="n">
-        <v>119.7</v>
+        <v>6.5269</v>
       </c>
       <c r="G166" t="n">
-        <v>10383.33333333333</v>
+        <v>10409.33333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6296,10 +6336,10 @@
         <v>10380</v>
       </c>
       <c r="F167" t="n">
-        <v>15</v>
+        <v>119.7</v>
       </c>
       <c r="G167" t="n">
-        <v>10383.33333333333</v>
+        <v>10408.66666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6319,22 +6359,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>10400</v>
+        <v>10380</v>
       </c>
       <c r="C168" t="n">
-        <v>10400</v>
+        <v>10380</v>
       </c>
       <c r="D168" t="n">
-        <v>10400</v>
+        <v>10380</v>
       </c>
       <c r="E168" t="n">
-        <v>10400</v>
+        <v>10380</v>
       </c>
       <c r="F168" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G168" t="n">
-        <v>10386.66666666667</v>
+        <v>10407.83333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6366,10 +6406,10 @@
         <v>10400</v>
       </c>
       <c r="F169" t="n">
-        <v>22.4671</v>
+        <v>7</v>
       </c>
       <c r="G169" t="n">
-        <v>10393.33333333333</v>
+        <v>10407.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6389,22 +6429,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="C170" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="D170" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="E170" t="n">
-        <v>10410</v>
+        <v>10400</v>
       </c>
       <c r="F170" t="n">
-        <v>29.6875</v>
+        <v>22.4671</v>
       </c>
       <c r="G170" t="n">
-        <v>10403.33333333333</v>
+        <v>10407.33333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6424,22 +6464,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>10450</v>
+        <v>10410</v>
       </c>
       <c r="C171" t="n">
-        <v>10450</v>
+        <v>10410</v>
       </c>
       <c r="D171" t="n">
-        <v>10450</v>
+        <v>10410</v>
       </c>
       <c r="E171" t="n">
-        <v>10450</v>
+        <v>10410</v>
       </c>
       <c r="F171" t="n">
-        <v>19.821</v>
+        <v>29.6875</v>
       </c>
       <c r="G171" t="n">
-        <v>10420</v>
+        <v>10407.16666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6462,19 +6502,19 @@
         <v>10450</v>
       </c>
       <c r="C172" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="D172" t="n">
-        <v>10490</v>
+        <v>10450</v>
       </c>
       <c r="E172" t="n">
         <v>10450</v>
       </c>
       <c r="F172" t="n">
-        <v>199.3691</v>
+        <v>19.821</v>
       </c>
       <c r="G172" t="n">
-        <v>10440</v>
+        <v>10407.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6494,22 +6534,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>10490</v>
+        <v>10450</v>
       </c>
       <c r="C173" t="n">
-        <v>10490</v>
+        <v>10460</v>
       </c>
       <c r="D173" t="n">
         <v>10490</v>
       </c>
       <c r="E173" t="n">
-        <v>10490</v>
+        <v>10450</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3124</v>
+        <v>199.3691</v>
       </c>
       <c r="G173" t="n">
-        <v>10466.66666666667</v>
+        <v>10408.33333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6532,19 +6572,19 @@
         <v>10490</v>
       </c>
       <c r="C174" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="D174" t="n">
-        <v>10500</v>
+        <v>10490</v>
       </c>
       <c r="E174" t="n">
         <v>10490</v>
       </c>
       <c r="F174" t="n">
-        <v>199.9963</v>
+        <v>0.3124</v>
       </c>
       <c r="G174" t="n">
-        <v>10483.33333333333</v>
+        <v>10409.66666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6564,22 +6604,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>10540</v>
+        <v>10490</v>
       </c>
       <c r="C175" t="n">
-        <v>10540</v>
+        <v>10500</v>
       </c>
       <c r="D175" t="n">
-        <v>10540</v>
+        <v>10500</v>
       </c>
       <c r="E175" t="n">
-        <v>10540</v>
+        <v>10490</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1</v>
+        <v>199.9963</v>
       </c>
       <c r="G175" t="n">
-        <v>10510</v>
+        <v>10412</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6599,22 +6639,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>10460</v>
+        <v>10540</v>
       </c>
       <c r="C176" t="n">
-        <v>10460</v>
+        <v>10540</v>
       </c>
       <c r="D176" t="n">
-        <v>10460</v>
+        <v>10540</v>
       </c>
       <c r="E176" t="n">
-        <v>10460</v>
+        <v>10540</v>
       </c>
       <c r="F176" t="n">
-        <v>19.38</v>
+        <v>0.1</v>
       </c>
       <c r="G176" t="n">
-        <v>10500</v>
+        <v>10414.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6640,16 +6680,16 @@
         <v>10460</v>
       </c>
       <c r="D177" t="n">
-        <v>10520</v>
+        <v>10460</v>
       </c>
       <c r="E177" t="n">
         <v>10460</v>
       </c>
       <c r="F177" t="n">
-        <v>187.12</v>
+        <v>19.38</v>
       </c>
       <c r="G177" t="n">
-        <v>10486.66666666667</v>
+        <v>10415.66666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6669,22 +6709,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>10480</v>
+        <v>10460</v>
       </c>
       <c r="C178" t="n">
-        <v>10480</v>
+        <v>10460</v>
       </c>
       <c r="D178" t="n">
-        <v>10480</v>
+        <v>10520</v>
       </c>
       <c r="E178" t="n">
-        <v>10480</v>
+        <v>10460</v>
       </c>
       <c r="F178" t="n">
-        <v>0.01</v>
+        <v>187.12</v>
       </c>
       <c r="G178" t="n">
-        <v>10466.66666666667</v>
+        <v>10416.83333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6704,22 +6744,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="C179" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="D179" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="E179" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="F179" t="n">
-        <v>33.2991</v>
+        <v>0.01</v>
       </c>
       <c r="G179" t="n">
-        <v>10470</v>
+        <v>10418.33333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6742,19 +6782,19 @@
         <v>10470</v>
       </c>
       <c r="C180" t="n">
-        <v>10480</v>
+        <v>10470</v>
       </c>
       <c r="D180" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="E180" t="n">
         <v>10470</v>
       </c>
       <c r="F180" t="n">
-        <v>127.8009</v>
+        <v>33.2991</v>
       </c>
       <c r="G180" t="n">
-        <v>10476.66666666667</v>
+        <v>10420</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6774,22 +6814,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="C181" t="n">
-        <v>10490</v>
+        <v>10480</v>
       </c>
       <c r="D181" t="n">
         <v>10490</v>
       </c>
       <c r="E181" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="F181" t="n">
-        <v>0.01</v>
+        <v>127.8009</v>
       </c>
       <c r="G181" t="n">
-        <v>10480</v>
+        <v>10421.66666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6809,22 +6849,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="C182" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="D182" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="E182" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G182" t="n">
-        <v>10480</v>
+        <v>10422.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6844,22 +6884,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>10480</v>
+        <v>10470</v>
       </c>
       <c r="C183" t="n">
         <v>10470</v>
       </c>
       <c r="D183" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="E183" t="n">
         <v>10470</v>
       </c>
       <c r="F183" t="n">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>10476.66666666667</v>
+        <v>10423</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6879,22 +6919,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>10500</v>
+        <v>10480</v>
       </c>
       <c r="C184" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="D184" t="n">
         <v>10500</v>
       </c>
       <c r="E184" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02</v>
+        <v>301</v>
       </c>
       <c r="G184" t="n">
-        <v>10476.66666666667</v>
+        <v>10423.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6914,22 +6954,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="C185" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="D185" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="E185" t="n">
-        <v>10470</v>
+        <v>10490</v>
       </c>
       <c r="F185" t="n">
-        <v>11.514</v>
+        <v>0.02</v>
       </c>
       <c r="G185" t="n">
-        <v>10476.66666666667</v>
+        <v>10424.33333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6949,22 +6989,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="C186" t="n">
-        <v>10480</v>
+        <v>10470</v>
       </c>
       <c r="D186" t="n">
-        <v>10490</v>
+        <v>10470</v>
       </c>
       <c r="E186" t="n">
-        <v>10480</v>
+        <v>10470</v>
       </c>
       <c r="F186" t="n">
-        <v>205.7974</v>
+        <v>11.514</v>
       </c>
       <c r="G186" t="n">
-        <v>10480</v>
+        <v>10424.83333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6984,22 +7024,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>10480</v>
+        <v>10490</v>
       </c>
       <c r="C187" t="n">
         <v>10480</v>
       </c>
       <c r="D187" t="n">
-        <v>10480</v>
+        <v>10490</v>
       </c>
       <c r="E187" t="n">
         <v>10480</v>
       </c>
       <c r="F187" t="n">
-        <v>30</v>
+        <v>205.7974</v>
       </c>
       <c r="G187" t="n">
-        <v>10476.66666666667</v>
+        <v>10425.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7031,10 +7071,10 @@
         <v>10480</v>
       </c>
       <c r="F188" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G188" t="n">
-        <v>10480</v>
+        <v>10426.16666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7054,22 +7094,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>10500</v>
+        <v>10480</v>
       </c>
       <c r="C189" t="n">
-        <v>10500</v>
+        <v>10480</v>
       </c>
       <c r="D189" t="n">
-        <v>10500</v>
+        <v>10480</v>
       </c>
       <c r="E189" t="n">
-        <v>10500</v>
+        <v>10480</v>
       </c>
       <c r="F189" t="n">
-        <v>0.01</v>
+        <v>85</v>
       </c>
       <c r="G189" t="n">
-        <v>10486.66666666667</v>
+        <v>10426.83333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7089,22 +7129,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="C190" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="D190" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="E190" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="F190" t="n">
-        <v>46.9346</v>
+        <v>0.01</v>
       </c>
       <c r="G190" t="n">
-        <v>10483.33333333333</v>
+        <v>10427.83333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7136,10 +7176,10 @@
         <v>10470</v>
       </c>
       <c r="F191" t="n">
-        <v>11.6885</v>
+        <v>46.9346</v>
       </c>
       <c r="G191" t="n">
-        <v>10480</v>
+        <v>10428.33333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7159,22 +7199,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="C192" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="D192" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="E192" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="F192" t="n">
-        <v>0.01</v>
+        <v>11.6885</v>
       </c>
       <c r="G192" t="n">
-        <v>10480</v>
+        <v>10429.33333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7194,22 +7234,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="C193" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="D193" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="E193" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="F193" t="n">
-        <v>38.3115</v>
+        <v>0.01</v>
       </c>
       <c r="G193" t="n">
-        <v>10480</v>
+        <v>10430.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7241,10 +7281,10 @@
         <v>10470</v>
       </c>
       <c r="F194" t="n">
-        <v>52.6108</v>
+        <v>38.3115</v>
       </c>
       <c r="G194" t="n">
-        <v>10480</v>
+        <v>10431.16666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7276,10 +7316,10 @@
         <v>10470</v>
       </c>
       <c r="F195" t="n">
-        <v>4.3673</v>
+        <v>52.6108</v>
       </c>
       <c r="G195" t="n">
-        <v>10470</v>
+        <v>10431.66666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7299,22 +7339,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="C196" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="D196" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="E196" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="F196" t="n">
-        <v>0.01</v>
+        <v>4.3673</v>
       </c>
       <c r="G196" t="n">
-        <v>10480</v>
+        <v>10432.33333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7334,22 +7374,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="C197" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="D197" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="E197" t="n">
-        <v>10470</v>
+        <v>10500</v>
       </c>
       <c r="F197" t="n">
-        <v>45.2374</v>
+        <v>0.01</v>
       </c>
       <c r="G197" t="n">
-        <v>10480</v>
+        <v>10433.66666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7369,22 +7409,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="C198" t="n">
-        <v>10480</v>
+        <v>10470</v>
       </c>
       <c r="D198" t="n">
-        <v>10500</v>
+        <v>10470</v>
       </c>
       <c r="E198" t="n">
-        <v>10480</v>
+        <v>10470</v>
       </c>
       <c r="F198" t="n">
-        <v>51.019</v>
+        <v>45.2374</v>
       </c>
       <c r="G198" t="n">
-        <v>10483.33333333333</v>
+        <v>10434.16666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7416,10 +7456,10 @@
         <v>10480</v>
       </c>
       <c r="F199" t="n">
-        <v>137.8508</v>
+        <v>51.019</v>
       </c>
       <c r="G199" t="n">
-        <v>10476.66666666667</v>
+        <v>10434.83333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7439,22 +7479,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>10480</v>
+        <v>10500</v>
       </c>
       <c r="C200" t="n">
         <v>10480</v>
       </c>
       <c r="D200" t="n">
-        <v>10480</v>
+        <v>10500</v>
       </c>
       <c r="E200" t="n">
         <v>10480</v>
       </c>
       <c r="F200" t="n">
-        <v>62.1492</v>
+        <v>137.8508</v>
       </c>
       <c r="G200" t="n">
-        <v>10480</v>
+        <v>10435.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7486,10 +7526,10 @@
         <v>10480</v>
       </c>
       <c r="F201" t="n">
-        <v>22.4709</v>
+        <v>62.1492</v>
       </c>
       <c r="G201" t="n">
-        <v>10480</v>
+        <v>10436.16666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7521,10 +7561,10 @@
         <v>10480</v>
       </c>
       <c r="F202" t="n">
-        <v>77.5291</v>
+        <v>22.4709</v>
       </c>
       <c r="G202" t="n">
-        <v>10480</v>
+        <v>10436.83333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7544,22 +7584,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="C203" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="D203" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="E203" t="n">
-        <v>10470</v>
+        <v>10480</v>
       </c>
       <c r="F203" t="n">
-        <v>79.7122</v>
+        <v>77.5291</v>
       </c>
       <c r="G203" t="n">
-        <v>10476.66666666667</v>
+        <v>10436.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7591,10 +7631,10 @@
         <v>10470</v>
       </c>
       <c r="F204" t="n">
-        <v>20</v>
+        <v>79.7122</v>
       </c>
       <c r="G204" t="n">
-        <v>10473.33333333333</v>
+        <v>10437.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7617,19 +7657,19 @@
         <v>10470</v>
       </c>
       <c r="C205" t="n">
-        <v>10460</v>
+        <v>10470</v>
       </c>
       <c r="D205" t="n">
         <v>10470</v>
       </c>
       <c r="E205" t="n">
-        <v>10460</v>
+        <v>10470</v>
       </c>
       <c r="F205" t="n">
-        <v>52.8675</v>
+        <v>20</v>
       </c>
       <c r="G205" t="n">
-        <v>10466.66666666667</v>
+        <v>10437.66666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7649,22 +7689,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>10460</v>
+        <v>10470</v>
       </c>
       <c r="C206" t="n">
         <v>10460</v>
       </c>
       <c r="D206" t="n">
-        <v>10460</v>
+        <v>10470</v>
       </c>
       <c r="E206" t="n">
         <v>10460</v>
       </c>
       <c r="F206" t="n">
-        <v>12</v>
+        <v>52.8675</v>
       </c>
       <c r="G206" t="n">
-        <v>10463.33333333333</v>
+        <v>10439</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7687,19 +7727,19 @@
         <v>10460</v>
       </c>
       <c r="C207" t="n">
-        <v>10430</v>
+        <v>10460</v>
       </c>
       <c r="D207" t="n">
         <v>10460</v>
       </c>
       <c r="E207" t="n">
-        <v>10430</v>
+        <v>10460</v>
       </c>
       <c r="F207" t="n">
-        <v>273.6307</v>
+        <v>12</v>
       </c>
       <c r="G207" t="n">
-        <v>10450</v>
+        <v>10440.16666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7719,22 +7759,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>10450</v>
+        <v>10460</v>
       </c>
       <c r="C208" t="n">
-        <v>10450</v>
+        <v>10430</v>
       </c>
       <c r="D208" t="n">
-        <v>10450</v>
+        <v>10460</v>
       </c>
       <c r="E208" t="n">
-        <v>10450</v>
+        <v>10430</v>
       </c>
       <c r="F208" t="n">
-        <v>9.9999</v>
+        <v>273.6307</v>
       </c>
       <c r="G208" t="n">
-        <v>10446.66666666667</v>
+        <v>10441.16666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7754,22 +7794,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="C209" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="D209" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="E209" t="n">
-        <v>10460</v>
+        <v>10450</v>
       </c>
       <c r="F209" t="n">
-        <v>9.7814</v>
+        <v>9.9999</v>
       </c>
       <c r="G209" t="n">
-        <v>10446.66666666667</v>
+        <v>10442.66666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7792,19 +7832,19 @@
         <v>10460</v>
       </c>
       <c r="C210" t="n">
-        <v>10510</v>
+        <v>10460</v>
       </c>
       <c r="D210" t="n">
-        <v>10510</v>
+        <v>10460</v>
       </c>
       <c r="E210" t="n">
         <v>10460</v>
       </c>
       <c r="F210" t="n">
-        <v>7.3988</v>
+        <v>9.7814</v>
       </c>
       <c r="G210" t="n">
-        <v>10473.33333333333</v>
+        <v>10444</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7827,19 +7867,19 @@
         <v>10460</v>
       </c>
       <c r="C211" t="n">
-        <v>10520</v>
+        <v>10510</v>
       </c>
       <c r="D211" t="n">
-        <v>10520</v>
+        <v>10510</v>
       </c>
       <c r="E211" t="n">
         <v>10460</v>
       </c>
       <c r="F211" t="n">
-        <v>38.01</v>
+        <v>7.3988</v>
       </c>
       <c r="G211" t="n">
-        <v>10496.66666666667</v>
+        <v>10445.16666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7859,22 +7899,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>10510</v>
+        <v>10460</v>
       </c>
       <c r="C212" t="n">
-        <v>10530</v>
+        <v>10520</v>
       </c>
       <c r="D212" t="n">
-        <v>10530</v>
+        <v>10520</v>
       </c>
       <c r="E212" t="n">
-        <v>10510</v>
+        <v>10460</v>
       </c>
       <c r="F212" t="n">
-        <v>32.98</v>
+        <v>38.01</v>
       </c>
       <c r="G212" t="n">
-        <v>10520</v>
+        <v>10448.66666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7894,22 +7934,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>10520</v>
+        <v>10510</v>
       </c>
       <c r="C213" t="n">
-        <v>10520</v>
+        <v>10530</v>
       </c>
       <c r="D213" t="n">
-        <v>10520</v>
+        <v>10530</v>
       </c>
       <c r="E213" t="n">
         <v>10510</v>
       </c>
       <c r="F213" t="n">
-        <v>170.5299</v>
+        <v>32.98</v>
       </c>
       <c r="G213" t="n">
-        <v>10523.33333333333</v>
+        <v>10452</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7932,19 +7972,19 @@
         <v>10520</v>
       </c>
       <c r="C214" t="n">
-        <v>10530</v>
+        <v>10520</v>
       </c>
       <c r="D214" t="n">
-        <v>10530</v>
+        <v>10520</v>
       </c>
       <c r="E214" t="n">
-        <v>10520</v>
+        <v>10510</v>
       </c>
       <c r="F214" t="n">
-        <v>9</v>
+        <v>170.5299</v>
       </c>
       <c r="G214" t="n">
-        <v>10526.66666666667</v>
+        <v>10454</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7964,7 +8004,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>10530</v>
+        <v>10520</v>
       </c>
       <c r="C215" t="n">
         <v>10530</v>
@@ -7973,13 +8013,13 @@
         <v>10530</v>
       </c>
       <c r="E215" t="n">
-        <v>10490</v>
+        <v>10520</v>
       </c>
       <c r="F215" t="n">
-        <v>22.7371</v>
+        <v>9</v>
       </c>
       <c r="G215" t="n">
-        <v>10526.66666666667</v>
+        <v>10456.16666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7999,22 +8039,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>10540</v>
+        <v>10530</v>
       </c>
       <c r="C216" t="n">
-        <v>10630</v>
+        <v>10530</v>
       </c>
       <c r="D216" t="n">
-        <v>10630</v>
+        <v>10530</v>
       </c>
       <c r="E216" t="n">
-        <v>10540</v>
+        <v>10490</v>
       </c>
       <c r="F216" t="n">
-        <v>530.015</v>
+        <v>22.7371</v>
       </c>
       <c r="G216" t="n">
-        <v>10563.33333333333</v>
+        <v>10458.33333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8034,22 +8074,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>10620</v>
+        <v>10540</v>
       </c>
       <c r="C217" t="n">
-        <v>10600</v>
+        <v>10630</v>
       </c>
       <c r="D217" t="n">
-        <v>10620</v>
+        <v>10630</v>
       </c>
       <c r="E217" t="n">
-        <v>10600</v>
+        <v>10540</v>
       </c>
       <c r="F217" t="n">
-        <v>21.82064669722489</v>
+        <v>530.015</v>
       </c>
       <c r="G217" t="n">
-        <v>10586.66666666667</v>
+        <v>10462.16666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8069,22 +8109,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>10620</v>
+      </c>
+      <c r="C218" t="n">
         <v>10600</v>
       </c>
-      <c r="C218" t="n">
-        <v>10550</v>
-      </c>
       <c r="D218" t="n">
-        <v>10640</v>
+        <v>10620</v>
       </c>
       <c r="E218" t="n">
-        <v>10550</v>
+        <v>10600</v>
       </c>
       <c r="F218" t="n">
-        <v>284.7785</v>
+        <v>21.82064669722489</v>
       </c>
       <c r="G218" t="n">
-        <v>10593.33333333333</v>
+        <v>10465.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8104,22 +8144,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>10570</v>
+        <v>10600</v>
       </c>
       <c r="C219" t="n">
-        <v>10570</v>
+        <v>10550</v>
       </c>
       <c r="D219" t="n">
-        <v>10580</v>
+        <v>10640</v>
       </c>
       <c r="E219" t="n">
-        <v>10570</v>
+        <v>10550</v>
       </c>
       <c r="F219" t="n">
-        <v>60.0835</v>
+        <v>284.7785</v>
       </c>
       <c r="G219" t="n">
-        <v>10573.33333333333</v>
+        <v>10468</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8139,22 +8179,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>10570</v>
+      </c>
+      <c r="C220" t="n">
+        <v>10570</v>
+      </c>
+      <c r="D220" t="n">
         <v>10580</v>
       </c>
-      <c r="C220" t="n">
-        <v>10620</v>
-      </c>
-      <c r="D220" t="n">
-        <v>10620</v>
-      </c>
       <c r="E220" t="n">
-        <v>10580</v>
+        <v>10570</v>
       </c>
       <c r="F220" t="n">
-        <v>40.9575</v>
+        <v>60.0835</v>
       </c>
       <c r="G220" t="n">
-        <v>10580</v>
+        <v>10471.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8174,22 +8214,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>10580</v>
+      </c>
+      <c r="C221" t="n">
         <v>10620</v>
       </c>
-      <c r="C221" t="n">
-        <v>10640</v>
-      </c>
       <c r="D221" t="n">
-        <v>10640</v>
+        <v>10620</v>
       </c>
       <c r="E221" t="n">
-        <v>10620</v>
+        <v>10580</v>
       </c>
       <c r="F221" t="n">
-        <v>179.3341</v>
+        <v>40.9575</v>
       </c>
       <c r="G221" t="n">
-        <v>10610</v>
+        <v>10476</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8209,7 +8249,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>10640</v>
+        <v>10620</v>
       </c>
       <c r="C222" t="n">
         <v>10640</v>
@@ -8218,13 +8258,13 @@
         <v>10640</v>
       </c>
       <c r="E222" t="n">
-        <v>10640</v>
+        <v>10620</v>
       </c>
       <c r="F222" t="n">
-        <v>1.8542</v>
+        <v>179.3341</v>
       </c>
       <c r="G222" t="n">
-        <v>10633.33333333333</v>
+        <v>10480.16666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8244,22 +8284,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>10630</v>
+        <v>10640</v>
       </c>
       <c r="C223" t="n">
-        <v>10580</v>
+        <v>10640</v>
       </c>
       <c r="D223" t="n">
-        <v>10630</v>
+        <v>10640</v>
       </c>
       <c r="E223" t="n">
-        <v>10580</v>
+        <v>10640</v>
       </c>
       <c r="F223" t="n">
-        <v>52.3575</v>
+        <v>1.8542</v>
       </c>
       <c r="G223" t="n">
-        <v>10620</v>
+        <v>10484.16666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8279,22 +8319,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>10590</v>
+        <v>10630</v>
       </c>
       <c r="C224" t="n">
-        <v>10590</v>
+        <v>10580</v>
       </c>
       <c r="D224" t="n">
-        <v>10590</v>
+        <v>10630</v>
       </c>
       <c r="E224" t="n">
-        <v>10590</v>
+        <v>10580</v>
       </c>
       <c r="F224" t="n">
-        <v>27.077</v>
+        <v>52.3575</v>
       </c>
       <c r="G224" t="n">
-        <v>10603.33333333333</v>
+        <v>10487.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8326,10 +8366,10 @@
         <v>10590</v>
       </c>
       <c r="F225" t="n">
-        <v>5.9137</v>
+        <v>27.077</v>
       </c>
       <c r="G225" t="n">
-        <v>10586.66666666667</v>
+        <v>10491</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8349,22 +8389,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>10620</v>
+        <v>10590</v>
       </c>
       <c r="C226" t="n">
-        <v>10640</v>
+        <v>10590</v>
       </c>
       <c r="D226" t="n">
-        <v>10640</v>
+        <v>10590</v>
       </c>
       <c r="E226" t="n">
-        <v>10620</v>
+        <v>10590</v>
       </c>
       <c r="F226" t="n">
-        <v>48.6668</v>
+        <v>5.9137</v>
       </c>
       <c r="G226" t="n">
-        <v>10606.66666666667</v>
+        <v>10494.33333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8384,22 +8424,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="C227" t="n">
-        <v>10630</v>
+        <v>10640</v>
       </c>
       <c r="D227" t="n">
-        <v>10630</v>
+        <v>10640</v>
       </c>
       <c r="E227" t="n">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="F227" t="n">
-        <v>12</v>
+        <v>48.6668</v>
       </c>
       <c r="G227" t="n">
-        <v>10620</v>
+        <v>10498.66666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8419,22 +8459,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>10620</v>
+        <v>10630</v>
       </c>
       <c r="C228" t="n">
-        <v>10620</v>
+        <v>10630</v>
       </c>
       <c r="D228" t="n">
-        <v>10620</v>
+        <v>10630</v>
       </c>
       <c r="E228" t="n">
-        <v>10620</v>
+        <v>10630</v>
       </c>
       <c r="F228" t="n">
-        <v>24.1252</v>
+        <v>12</v>
       </c>
       <c r="G228" t="n">
-        <v>10630</v>
+        <v>10502.83333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8454,22 +8494,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>10600</v>
+        <v>10620</v>
       </c>
       <c r="C229" t="n">
-        <v>10600</v>
+        <v>10620</v>
       </c>
       <c r="D229" t="n">
-        <v>10600</v>
+        <v>10620</v>
       </c>
       <c r="E229" t="n">
-        <v>10600</v>
+        <v>10620</v>
       </c>
       <c r="F229" t="n">
-        <v>9.4</v>
+        <v>24.1252</v>
       </c>
       <c r="G229" t="n">
-        <v>10616.66666666667</v>
+        <v>10506.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8489,22 +8529,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="C230" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="D230" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="E230" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="F230" t="n">
-        <v>145.8248</v>
+        <v>9.4</v>
       </c>
       <c r="G230" t="n">
-        <v>10616.66666666667</v>
+        <v>10509.83333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8524,22 +8564,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>10600</v>
+        <v>10630</v>
       </c>
       <c r="C231" t="n">
-        <v>10600</v>
+        <v>10630</v>
       </c>
       <c r="D231" t="n">
-        <v>10600</v>
+        <v>10630</v>
       </c>
       <c r="E231" t="n">
-        <v>10600</v>
+        <v>10630</v>
       </c>
       <c r="F231" t="n">
-        <v>9</v>
+        <v>145.8248</v>
       </c>
       <c r="G231" t="n">
-        <v>10610</v>
+        <v>10513.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8559,22 +8599,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>10620</v>
+        <v>10600</v>
       </c>
       <c r="C232" t="n">
-        <v>10620</v>
+        <v>10600</v>
       </c>
       <c r="D232" t="n">
-        <v>10620</v>
+        <v>10600</v>
       </c>
       <c r="E232" t="n">
-        <v>10620</v>
+        <v>10600</v>
       </c>
       <c r="F232" t="n">
-        <v>19.87</v>
+        <v>9</v>
       </c>
       <c r="G232" t="n">
-        <v>10616.66666666667</v>
+        <v>10516</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8606,10 +8646,10 @@
         <v>10620</v>
       </c>
       <c r="F233" t="n">
-        <v>4.13</v>
+        <v>19.87</v>
       </c>
       <c r="G233" t="n">
-        <v>10613.33333333333</v>
+        <v>10518.66666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8629,22 +8669,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="C234" t="n">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="D234" t="n">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="E234" t="n">
-        <v>10630</v>
+        <v>10620</v>
       </c>
       <c r="F234" t="n">
-        <v>49.9202</v>
+        <v>4.13</v>
       </c>
       <c r="G234" t="n">
-        <v>10623.33333333333</v>
+        <v>10520.83333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8664,22 +8704,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>10640</v>
+        <v>10630</v>
       </c>
       <c r="C235" t="n">
-        <v>10660</v>
+        <v>10630</v>
       </c>
       <c r="D235" t="n">
-        <v>10660</v>
+        <v>10630</v>
       </c>
       <c r="E235" t="n">
-        <v>10640</v>
+        <v>10630</v>
       </c>
       <c r="F235" t="n">
-        <v>45.95800377358491</v>
+        <v>49.9202</v>
       </c>
       <c r="G235" t="n">
-        <v>10636.66666666667</v>
+        <v>10523</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8699,22 +8739,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>10640</v>
+      </c>
+      <c r="C236" t="n">
         <v>10660</v>
       </c>
-      <c r="C236" t="n">
+      <c r="D236" t="n">
+        <v>10660</v>
+      </c>
+      <c r="E236" t="n">
         <v>10640</v>
       </c>
-      <c r="D236" t="n">
-        <v>10670</v>
-      </c>
-      <c r="E236" t="n">
-        <v>10630</v>
-      </c>
       <c r="F236" t="n">
-        <v>26.9738</v>
+        <v>45.95800377358491</v>
       </c>
       <c r="G236" t="n">
-        <v>10643.33333333333</v>
+        <v>10525</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8734,22 +8774,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>10600</v>
+        <v>10660</v>
       </c>
       <c r="C237" t="n">
-        <v>10600</v>
+        <v>10640</v>
       </c>
       <c r="D237" t="n">
-        <v>10600</v>
+        <v>10670</v>
       </c>
       <c r="E237" t="n">
-        <v>10600</v>
+        <v>10630</v>
       </c>
       <c r="F237" t="n">
-        <v>4.1839</v>
+        <v>26.9738</v>
       </c>
       <c r="G237" t="n">
-        <v>10633.33333333333</v>
+        <v>10528</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8769,22 +8809,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="C238" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="D238" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="E238" t="n">
-        <v>10630</v>
+        <v>10600</v>
       </c>
       <c r="F238" t="n">
-        <v>20.1402</v>
+        <v>4.1839</v>
       </c>
       <c r="G238" t="n">
-        <v>10623.33333333333</v>
+        <v>10530.33333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8804,22 +8844,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>10610</v>
+        <v>10630</v>
       </c>
       <c r="C239" t="n">
-        <v>10610</v>
+        <v>10630</v>
       </c>
       <c r="D239" t="n">
-        <v>10610</v>
+        <v>10630</v>
       </c>
       <c r="E239" t="n">
-        <v>10610</v>
+        <v>10630</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>20.1402</v>
       </c>
       <c r="G239" t="n">
-        <v>10613.33333333333</v>
+        <v>10532.83333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8839,22 +8879,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>10620</v>
+        <v>10610</v>
       </c>
       <c r="C240" t="n">
-        <v>10600</v>
+        <v>10610</v>
       </c>
       <c r="D240" t="n">
-        <v>10640</v>
+        <v>10610</v>
       </c>
       <c r="E240" t="n">
-        <v>10600</v>
+        <v>10610</v>
       </c>
       <c r="F240" t="n">
-        <v>86.0635</v>
+        <v>2</v>
       </c>
       <c r="G240" t="n">
-        <v>10613.33333333333</v>
+        <v>10535.16666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8874,22 +8914,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>10600</v>
+        <v>10620</v>
       </c>
       <c r="C241" t="n">
         <v>10600</v>
       </c>
       <c r="D241" t="n">
-        <v>10600</v>
+        <v>10640</v>
       </c>
       <c r="E241" t="n">
         <v>10600</v>
       </c>
       <c r="F241" t="n">
-        <v>4.4771</v>
+        <v>86.0635</v>
       </c>
       <c r="G241" t="n">
-        <v>10603.33333333333</v>
+        <v>10537.16666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8921,10 +8961,10 @@
         <v>10600</v>
       </c>
       <c r="F242" t="n">
-        <v>8.6717</v>
+        <v>4.4771</v>
       </c>
       <c r="G242" t="n">
-        <v>10600</v>
+        <v>10539</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8944,22 +8984,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>10590</v>
+        <v>10600</v>
       </c>
       <c r="C243" t="n">
-        <v>10590</v>
+        <v>10600</v>
       </c>
       <c r="D243" t="n">
-        <v>10590</v>
+        <v>10600</v>
       </c>
       <c r="E243" t="n">
-        <v>10590</v>
+        <v>10600</v>
       </c>
       <c r="F243" t="n">
-        <v>163.89</v>
+        <v>8.6717</v>
       </c>
       <c r="G243" t="n">
-        <v>10596.66666666667</v>
+        <v>10541.16666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8991,10 +9031,10 @@
         <v>10590</v>
       </c>
       <c r="F244" t="n">
-        <v>7.52</v>
+        <v>163.89</v>
       </c>
       <c r="G244" t="n">
-        <v>10593.33333333333</v>
+        <v>10543.16666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9026,10 +9066,10 @@
         <v>10590</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0097</v>
+        <v>7.52</v>
       </c>
       <c r="G245" t="n">
-        <v>10590</v>
+        <v>10544.83333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9044,6 +9084,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>10590</v>
+      </c>
+      <c r="C246" t="n">
+        <v>10590</v>
+      </c>
+      <c r="D246" t="n">
+        <v>10590</v>
+      </c>
+      <c r="E246" t="n">
+        <v>10590</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10546.83333333333</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest REP.xlsx
+++ b/BackTest/2019-10-31 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:N256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>92.48288239845262</v>
       </c>
       <c r="G2" t="n">
+        <v>10300</v>
+      </c>
+      <c r="H2" t="n">
         <v>10331.33333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,24 +491,27 @@
         <v>1.5229</v>
       </c>
       <c r="G3" t="n">
+        <v>10303.33333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>10331.33333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>10340</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -524,24 +535,25 @@
         <v>267.7734</v>
       </c>
       <c r="G4" t="n">
+        <v>10312.66666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>10332.16666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10330</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,22 +577,25 @@
         <v>13.3516</v>
       </c>
       <c r="G5" t="n">
+        <v>10313.33333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>10332.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,22 +619,25 @@
         <v>98.20529999999999</v>
       </c>
       <c r="G6" t="n">
+        <v>10308.66666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>10329.83333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,22 +661,25 @@
         <v>395.6121</v>
       </c>
       <c r="G7" t="n">
+        <v>10302</v>
+      </c>
+      <c r="H7" t="n">
         <v>10328.83333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,22 +703,25 @@
         <v>9.101800000000001</v>
       </c>
       <c r="G8" t="n">
+        <v>10302.66666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>10327.83333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -721,22 +745,25 @@
         <v>32.44</v>
       </c>
       <c r="G9" t="n">
+        <v>10305.33333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>10326.83333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,22 +787,25 @@
         <v>6.51</v>
       </c>
       <c r="G10" t="n">
+        <v>10308</v>
+      </c>
+      <c r="H10" t="n">
         <v>10327.66666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,22 +829,25 @@
         <v>6.5199</v>
       </c>
       <c r="G11" t="n">
+        <v>10309.33333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>10326.66666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,22 +871,25 @@
         <v>15.6423</v>
       </c>
       <c r="G12" t="n">
+        <v>10311.33333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>10325.83333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -877,22 +913,25 @@
         <v>30</v>
       </c>
       <c r="G13" t="n">
+        <v>10317.33333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>10327.16666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,22 +955,27 @@
         <v>39.541</v>
       </c>
       <c r="G14" t="n">
+        <v>10322.66666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>10329</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10350</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,22 +999,25 @@
         <v>3.2007</v>
       </c>
       <c r="G15" t="n">
+        <v>10327.33333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>10329</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,22 +1041,25 @@
         <v>53.457</v>
       </c>
       <c r="G16" t="n">
+        <v>10333.33333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>10329.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1033,22 +1083,25 @@
         <v>34.77</v>
       </c>
       <c r="G17" t="n">
+        <v>10335.33333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>10329.66666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1072,22 +1125,25 @@
         <v>94.8</v>
       </c>
       <c r="G18" t="n">
+        <v>10340</v>
+      </c>
+      <c r="H18" t="n">
         <v>10330.33333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1111,22 +1167,25 @@
         <v>42.38</v>
       </c>
       <c r="G19" t="n">
+        <v>10340.66666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>10331</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1150,22 +1209,25 @@
         <v>724.4429</v>
       </c>
       <c r="G20" t="n">
+        <v>10345.33333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>10332.33333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1189,22 +1251,25 @@
         <v>80.491</v>
       </c>
       <c r="G21" t="n">
+        <v>10358</v>
+      </c>
+      <c r="H21" t="n">
         <v>10333.66666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,22 +1293,27 @@
         <v>4.0599</v>
       </c>
       <c r="G22" t="n">
+        <v>10373.33333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>10334.83333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,18 +1335,25 @@
         <v>143.7241</v>
       </c>
       <c r="G23" t="n">
+        <v>10381.33333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>10336.16666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,18 +1377,25 @@
         <v>102.6138</v>
       </c>
       <c r="G24" t="n">
+        <v>10388.66666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>10337.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,18 +1419,25 @@
         <v>64.4893</v>
       </c>
       <c r="G25" t="n">
+        <v>10395.33333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>10338.66666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1370,18 +1461,25 @@
         <v>18.351</v>
       </c>
       <c r="G26" t="n">
+        <v>10402.66666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>10341</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1405,18 +1503,25 @@
         <v>14.8</v>
       </c>
       <c r="G27" t="n">
+        <v>10409.33333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>10343.16666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1440,18 +1545,25 @@
         <v>4.048</v>
       </c>
       <c r="G28" t="n">
+        <v>10415.33333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>10345</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1475,18 +1587,25 @@
         <v>49.516</v>
       </c>
       <c r="G29" t="n">
+        <v>10420</v>
+      </c>
+      <c r="H29" t="n">
         <v>10346.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,18 +1629,25 @@
         <v>17.3105</v>
       </c>
       <c r="G30" t="n">
+        <v>10424.66666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>10348.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1545,18 +1671,25 @@
         <v>30</v>
       </c>
       <c r="G31" t="n">
+        <v>10426</v>
+      </c>
+      <c r="H31" t="n">
         <v>10349.16666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,18 +1713,25 @@
         <v>4.0521</v>
       </c>
       <c r="G32" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H32" t="n">
         <v>10349.66666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1615,18 +1755,25 @@
         <v>170.7889</v>
       </c>
       <c r="G33" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H33" t="n">
         <v>10350.16666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,18 +1797,25 @@
         <v>33.378</v>
       </c>
       <c r="G34" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H34" t="n">
         <v>10350.66666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1685,18 +1839,25 @@
         <v>25.0109</v>
       </c>
       <c r="G35" t="n">
+        <v>10425.33333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>10351.16666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1720,18 +1881,25 @@
         <v>9.143000000000001</v>
       </c>
       <c r="G36" t="n">
+        <v>10422.66666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>10351.66666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,18 +1923,25 @@
         <v>34.8738</v>
       </c>
       <c r="G37" t="n">
+        <v>10420</v>
+      </c>
+      <c r="H37" t="n">
         <v>10353</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1790,18 +1965,25 @@
         <v>40.925</v>
       </c>
       <c r="G38" t="n">
+        <v>10417.33333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>10356</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,18 +2007,25 @@
         <v>27.604</v>
       </c>
       <c r="G39" t="n">
+        <v>10414.66666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>10357.33333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,18 +2049,25 @@
         <v>206.3151</v>
       </c>
       <c r="G40" t="n">
+        <v>10414</v>
+      </c>
+      <c r="H40" t="n">
         <v>10358.83333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1895,18 +2091,25 @@
         <v>70</v>
       </c>
       <c r="G41" t="n">
+        <v>10414</v>
+      </c>
+      <c r="H41" t="n">
         <v>10361</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,18 +2133,25 @@
         <v>30.4032</v>
       </c>
       <c r="G42" t="n">
+        <v>10414</v>
+      </c>
+      <c r="H42" t="n">
         <v>10363</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1965,18 +2175,25 @@
         <v>116.58</v>
       </c>
       <c r="G43" t="n">
+        <v>10414</v>
+      </c>
+      <c r="H43" t="n">
         <v>10364.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,18 +2217,25 @@
         <v>8.4102</v>
       </c>
       <c r="G44" t="n">
+        <v>10414.66666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>10366</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2035,18 +2259,25 @@
         <v>6.086</v>
       </c>
       <c r="G45" t="n">
+        <v>10415.33333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>10367.33333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,18 +2301,25 @@
         <v>80.0399</v>
       </c>
       <c r="G46" t="n">
+        <v>10417.33333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>10368.33333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2105,18 +2343,25 @@
         <v>76.65309999999999</v>
       </c>
       <c r="G47" t="n">
+        <v>10420</v>
+      </c>
+      <c r="H47" t="n">
         <v>10370.83333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2140,18 +2385,25 @@
         <v>0.3927</v>
       </c>
       <c r="G48" t="n">
+        <v>10422.66666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>10373.5</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2175,18 +2427,25 @@
         <v>0.01</v>
       </c>
       <c r="G49" t="n">
+        <v>10425.33333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>10376.66666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,18 +2469,25 @@
         <v>9.9999</v>
       </c>
       <c r="G50" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H50" t="n">
         <v>10378</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2245,18 +2511,25 @@
         <v>22.4</v>
       </c>
       <c r="G51" t="n">
+        <v>10430.66666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>10380</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,18 +2553,25 @@
         <v>22.3226</v>
       </c>
       <c r="G52" t="n">
+        <v>10433.33333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>10382.16666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2315,18 +2595,25 @@
         <v>44.1684</v>
       </c>
       <c r="G53" t="n">
+        <v>10434</v>
+      </c>
+      <c r="H53" t="n">
         <v>10383.83333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2350,18 +2637,25 @@
         <v>17.1985</v>
       </c>
       <c r="G54" t="n">
+        <v>10436.66666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>10386.33333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2385,18 +2679,25 @@
         <v>3.8485</v>
       </c>
       <c r="G55" t="n">
+        <v>10436</v>
+      </c>
+      <c r="H55" t="n">
         <v>10388.33333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2420,18 +2721,25 @@
         <v>10.4714</v>
       </c>
       <c r="G56" t="n">
+        <v>10434</v>
+      </c>
+      <c r="H56" t="n">
         <v>10390</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,18 +2763,25 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>10434</v>
+      </c>
+      <c r="H57" t="n">
         <v>10392.16666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,18 +2805,25 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H58" t="n">
         <v>10394.66666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2525,18 +2847,25 @@
         <v>109.6779</v>
       </c>
       <c r="G59" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H59" t="n">
         <v>10397.33333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2560,18 +2889,25 @@
         <v>73.5822</v>
       </c>
       <c r="G60" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H60" t="n">
         <v>10399.83333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2595,18 +2931,25 @@
         <v>115.1462</v>
       </c>
       <c r="G61" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H61" t="n">
         <v>10402.16666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,18 +2973,27 @@
         <v>30.1472</v>
       </c>
       <c r="G62" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H62" t="n">
         <v>10403.83333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>10440</v>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2665,18 +3017,27 @@
         <v>24.065</v>
       </c>
       <c r="G63" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H63" t="n">
         <v>10405.66666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>10440</v>
+      </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,18 +3061,27 @@
         <v>49.1539</v>
       </c>
       <c r="G64" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H64" t="n">
         <v>10406.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>10440</v>
+      </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2735,18 +3105,27 @@
         <v>4.351</v>
       </c>
       <c r="G65" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H65" t="n">
         <v>10407.66666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10440</v>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,18 +3149,27 @@
         <v>47.8994</v>
       </c>
       <c r="G66" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H66" t="n">
         <v>10410.83333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>10440</v>
+      </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2805,18 +3193,27 @@
         <v>294.5734</v>
       </c>
       <c r="G67" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H67" t="n">
         <v>10414.66666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>10440</v>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2840,18 +3237,27 @@
         <v>0.1751</v>
       </c>
       <c r="G68" t="n">
+        <v>10438</v>
+      </c>
+      <c r="H68" t="n">
         <v>10417.66666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>10440</v>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,18 +3281,25 @@
         <v>7.9576</v>
       </c>
       <c r="G69" t="n">
+        <v>10442</v>
+      </c>
+      <c r="H69" t="n">
         <v>10420.5</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,18 +3323,25 @@
         <v>18.9874</v>
       </c>
       <c r="G70" t="n">
+        <v>10445.33333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>10422.66666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,18 +3365,25 @@
         <v>50.0234</v>
       </c>
       <c r="G71" t="n">
+        <v>10448</v>
+      </c>
+      <c r="H71" t="n">
         <v>10424.66666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,18 +3407,25 @@
         <v>14.81</v>
       </c>
       <c r="G72" t="n">
+        <v>10449.33333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>10426.66666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3015,18 +3449,25 @@
         <v>44.25</v>
       </c>
       <c r="G73" t="n">
+        <v>10451.33333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>10428.16666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3050,18 +3491,25 @@
         <v>10.1472</v>
       </c>
       <c r="G74" t="n">
+        <v>10452</v>
+      </c>
+      <c r="H74" t="n">
         <v>10429.66666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3085,18 +3533,27 @@
         <v>7.9377</v>
       </c>
       <c r="G75" t="n">
+        <v>10453.33333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>10431.33333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>10450</v>
+      </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,18 +3577,27 @@
         <v>71</v>
       </c>
       <c r="G76" t="n">
+        <v>10457.33333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>10433.16666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>10460</v>
+      </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3155,18 +3621,25 @@
         <v>5</v>
       </c>
       <c r="G77" t="n">
+        <v>10462</v>
+      </c>
+      <c r="H77" t="n">
         <v>10435.5</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,18 +3663,25 @@
         <v>30</v>
       </c>
       <c r="G78" t="n">
+        <v>10466.66666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>10437.33333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3225,18 +3705,25 @@
         <v>136.0202</v>
       </c>
       <c r="G79" t="n">
+        <v>10472</v>
+      </c>
+      <c r="H79" t="n">
         <v>10439.33333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,18 +3747,25 @@
         <v>68.783</v>
       </c>
       <c r="G80" t="n">
+        <v>10476</v>
+      </c>
+      <c r="H80" t="n">
         <v>10440.33333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3295,18 +3789,25 @@
         <v>54.7</v>
       </c>
       <c r="G81" t="n">
+        <v>10480</v>
+      </c>
+      <c r="H81" t="n">
         <v>10441.33333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,18 +3831,25 @@
         <v>7.4009</v>
       </c>
       <c r="G82" t="n">
+        <v>10483.33333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>10442.16666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3365,18 +3873,25 @@
         <v>0.01</v>
       </c>
       <c r="G83" t="n">
+        <v>10483.33333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>10443.16666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,18 +3915,25 @@
         <v>98.15260000000001</v>
       </c>
       <c r="G84" t="n">
+        <v>10482.66666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>10444</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3435,18 +3957,25 @@
         <v>14.0314</v>
       </c>
       <c r="G85" t="n">
+        <v>10486.66666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>10445.5</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,18 +3999,25 @@
         <v>46.4063</v>
       </c>
       <c r="G86" t="n">
+        <v>10492</v>
+      </c>
+      <c r="H86" t="n">
         <v>10447</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,18 +4041,25 @@
         <v>7.03</v>
       </c>
       <c r="G87" t="n">
+        <v>10494</v>
+      </c>
+      <c r="H87" t="n">
         <v>10447.83333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,18 +4083,25 @@
         <v>14</v>
       </c>
       <c r="G88" t="n">
+        <v>10496</v>
+      </c>
+      <c r="H88" t="n">
         <v>10448.33333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,18 +4125,25 @@
         <v>7.0267</v>
       </c>
       <c r="G89" t="n">
+        <v>10499.33333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>10449.5</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,18 +4167,25 @@
         <v>7.0233</v>
       </c>
       <c r="G90" t="n">
+        <v>10502</v>
+      </c>
+      <c r="H90" t="n">
         <v>10450.66666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,18 +4209,25 @@
         <v>1.0147</v>
       </c>
       <c r="G91" t="n">
+        <v>10502</v>
+      </c>
+      <c r="H91" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,18 +4251,25 @@
         <v>15.5726</v>
       </c>
       <c r="G92" t="n">
+        <v>10501.33333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>10453.83333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3715,18 +4293,25 @@
         <v>55.3838</v>
       </c>
       <c r="G93" t="n">
+        <v>10500.66666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>10455.5</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,18 +4335,25 @@
         <v>13.6923</v>
       </c>
       <c r="G94" t="n">
+        <v>10498</v>
+      </c>
+      <c r="H94" t="n">
         <v>10456.83333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3785,18 +4377,25 @@
         <v>0.01</v>
       </c>
       <c r="G95" t="n">
+        <v>10496</v>
+      </c>
+      <c r="H95" t="n">
         <v>10458</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,18 +4419,25 @@
         <v>4.88</v>
       </c>
       <c r="G96" t="n">
+        <v>10492.66666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>10458.83333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,18 +4461,25 @@
         <v>184.3882</v>
       </c>
       <c r="G97" t="n">
+        <v>10490</v>
+      </c>
+      <c r="H97" t="n">
         <v>10459.66666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,18 +4503,25 @@
         <v>0.01</v>
       </c>
       <c r="G98" t="n">
+        <v>10490</v>
+      </c>
+      <c r="H98" t="n">
         <v>10461.33333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3925,18 +4545,25 @@
         <v>24.5114</v>
       </c>
       <c r="G99" t="n">
+        <v>10486.66666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>10462</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,18 +4587,25 @@
         <v>0.0012</v>
       </c>
       <c r="G100" t="n">
+        <v>10481.33333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>10462.33333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,18 +4629,25 @@
         <v>31.003</v>
       </c>
       <c r="G101" t="n">
+        <v>10475.33333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>10462.33333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,18 +4671,25 @@
         <v>19.8</v>
       </c>
       <c r="G102" t="n">
+        <v>10471.33333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>10462.16666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4065,18 +4713,25 @@
         <v>180</v>
       </c>
       <c r="G103" t="n">
+        <v>10465.33333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>10461.16666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,18 +4755,25 @@
         <v>9.374000000000001</v>
       </c>
       <c r="G104" t="n">
+        <v>10460.66666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>10461</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4135,18 +4797,25 @@
         <v>9.390000000000001</v>
       </c>
       <c r="G105" t="n">
+        <v>10456</v>
+      </c>
+      <c r="H105" t="n">
         <v>10460.83333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,18 +4839,25 @@
         <v>50</v>
       </c>
       <c r="G106" t="n">
+        <v>10448</v>
+      </c>
+      <c r="H106" t="n">
         <v>10459.83333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4205,18 +4881,25 @@
         <v>0.01</v>
       </c>
       <c r="G107" t="n">
+        <v>10442.66666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>10459.5</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,18 +4923,25 @@
         <v>0.01</v>
       </c>
       <c r="G108" t="n">
+        <v>10438</v>
+      </c>
+      <c r="H108" t="n">
         <v>10459.33333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4275,18 +4965,25 @@
         <v>54.5658</v>
       </c>
       <c r="G109" t="n">
+        <v>10434</v>
+      </c>
+      <c r="H109" t="n">
         <v>10459</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,18 +5007,25 @@
         <v>4.3512</v>
       </c>
       <c r="G110" t="n">
+        <v>10430</v>
+      </c>
+      <c r="H110" t="n">
         <v>10458.5</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4345,18 +5049,27 @@
         <v>0.01</v>
       </c>
       <c r="G111" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H111" t="n">
         <v>10458.16666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>10410</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,18 +5093,25 @@
         <v>0.01</v>
       </c>
       <c r="G112" t="n">
+        <v>10426.66666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>10458</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4415,18 +5135,25 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
+        <v>10420.66666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>10458</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,18 +5177,25 @@
         <v>30.457</v>
       </c>
       <c r="G114" t="n">
+        <v>10418.66666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>10457.5</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,18 +5219,25 @@
         <v>106.9</v>
       </c>
       <c r="G115" t="n">
+        <v>10413.33333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>10456.66666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,22 +5261,27 @@
         <v>0.01</v>
       </c>
       <c r="G116" t="n">
+        <v>10410</v>
+      </c>
+      <c r="H116" t="n">
         <v>10456.33333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>10360</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>10360</v>
       </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,24 +5305,27 @@
         <v>19.3432</v>
       </c>
       <c r="G117" t="n">
+        <v>10407.33333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>10455.5</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
-        <v>10360</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>10390</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4600,24 +5349,25 @@
         <v>3.494</v>
       </c>
       <c r="G118" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H118" t="n">
         <v>10455.16666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>10360</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4641,18 +5391,25 @@
         <v>18.2489</v>
       </c>
       <c r="G119" t="n">
+        <v>10405.33333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>10454.33333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,22 +5433,27 @@
         <v>100.06</v>
       </c>
       <c r="G120" t="n">
+        <v>10401.33333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>10453.16666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
         <v>10390</v>
       </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4715,24 +5477,25 @@
         <v>171.8374</v>
       </c>
       <c r="G121" t="n">
+        <v>10401.33333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>10390</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,26 +5519,25 @@
         <v>7.115</v>
       </c>
       <c r="G122" t="n">
+        <v>10402.66666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K122" t="n">
-        <v>10390</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,18 +5561,25 @@
         <v>34.0007</v>
       </c>
       <c r="G123" t="n">
+        <v>10403.33333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,18 +5603,25 @@
         <v>128.2829</v>
       </c>
       <c r="G124" t="n">
+        <v>10404.66666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,18 +5645,25 @@
         <v>16.172</v>
       </c>
       <c r="G125" t="n">
+        <v>10406.66666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,18 +5687,25 @@
         <v>32.815</v>
       </c>
       <c r="G126" t="n">
+        <v>10408</v>
+      </c>
+      <c r="H126" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4939,18 +5729,25 @@
         <v>98.449</v>
       </c>
       <c r="G127" t="n">
+        <v>10408.66666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>10452.16666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,18 +5771,25 @@
         <v>239.001</v>
       </c>
       <c r="G128" t="n">
+        <v>10410.66666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>10451.16666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,18 +5813,25 @@
         <v>8.741</v>
       </c>
       <c r="G129" t="n">
+        <v>10412.66666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>10450.16666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,18 +5855,25 @@
         <v>37.5935</v>
       </c>
       <c r="G130" t="n">
+        <v>10418</v>
+      </c>
+      <c r="H130" t="n">
         <v>10449.83333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5079,18 +5897,25 @@
         <v>737.0652</v>
       </c>
       <c r="G131" t="n">
+        <v>10421.33333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>10449.66666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,18 +5939,25 @@
         <v>27.5561</v>
       </c>
       <c r="G132" t="n">
+        <v>10422.66666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>10448.83333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,18 +5981,25 @@
         <v>33.16</v>
       </c>
       <c r="G133" t="n">
+        <v>10425.33333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>10448.66666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5184,18 +6023,25 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H134" t="n">
         <v>10448.33333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,18 +6065,25 @@
         <v>237.0706</v>
       </c>
       <c r="G135" t="n">
+        <v>10432.66666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>10448</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,18 +6107,25 @@
         <v>65.84</v>
       </c>
       <c r="G136" t="n">
+        <v>10436</v>
+      </c>
+      <c r="H136" t="n">
         <v>10446.83333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5289,18 +6149,25 @@
         <v>5.76</v>
       </c>
       <c r="G137" t="n">
+        <v>10434.66666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>10445.33333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,18 +6191,25 @@
         <v>90.4717</v>
       </c>
       <c r="G138" t="n">
+        <v>10434.66666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>10444.16666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5359,18 +6233,25 @@
         <v>24.2677</v>
       </c>
       <c r="G139" t="n">
+        <v>10434.66666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>10442.83333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,18 +6275,25 @@
         <v>15.611</v>
       </c>
       <c r="G140" t="n">
+        <v>10434.66666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>10441.83333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5429,18 +6317,25 @@
         <v>81.2336</v>
       </c>
       <c r="G141" t="n">
+        <v>10434.66666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>10440.83333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,18 +6359,25 @@
         <v>0.0001</v>
       </c>
       <c r="G142" t="n">
-        <v>10440</v>
+        <v>10434.66666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,18 +6401,25 @@
         <v>0.01</v>
       </c>
       <c r="G143" t="n">
-        <v>10440</v>
+        <v>10438.66666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,18 +6443,25 @@
         <v>14.3499</v>
       </c>
       <c r="G144" t="n">
+        <v>10436.66666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>10438.66666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5569,18 +6485,25 @@
         <v>3.2965</v>
       </c>
       <c r="G145" t="n">
+        <v>10438</v>
+      </c>
+      <c r="H145" t="n">
         <v>10437.66666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,18 +6527,25 @@
         <v>66.20189999999999</v>
       </c>
       <c r="G146" t="n">
+        <v>10434</v>
+      </c>
+      <c r="H146" t="n">
         <v>10435.16666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,18 +6569,25 @@
         <v>2.0008</v>
       </c>
       <c r="G147" t="n">
+        <v>10432.66666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>10433.5</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,18 +6611,25 @@
         <v>68.9302</v>
       </c>
       <c r="G148" t="n">
+        <v>10428.66666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>10431.83333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5709,18 +6653,27 @@
         <v>4.2463</v>
       </c>
       <c r="G149" t="n">
+        <v>10424</v>
+      </c>
+      <c r="H149" t="n">
         <v>10429.5</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>10370</v>
+      </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,18 +6697,27 @@
         <v>58.4577</v>
       </c>
       <c r="G150" t="n">
+        <v>10420</v>
+      </c>
+      <c r="H150" t="n">
         <v>10427.5</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>10360</v>
+      </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5779,18 +6741,27 @@
         <v>36</v>
       </c>
       <c r="G151" t="n">
+        <v>10420.66666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>10426.5</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>10380</v>
+      </c>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,18 +6785,27 @@
         <v>237.0706</v>
       </c>
       <c r="G152" t="n">
+        <v>10413.33333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>10423.33333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>10440</v>
+      </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5849,18 +6829,27 @@
         <v>9.4221</v>
       </c>
       <c r="G153" t="n">
+        <v>10406</v>
+      </c>
+      <c r="H153" t="n">
         <v>10420.5</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>10310</v>
+      </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,18 +6873,27 @@
         <v>20</v>
       </c>
       <c r="G154" t="n">
+        <v>10403.33333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>10419.16666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>10330</v>
+      </c>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5919,18 +6917,27 @@
         <v>18</v>
       </c>
       <c r="G155" t="n">
+        <v>10400.66666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>10418</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>10400</v>
+      </c>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,18 +6961,25 @@
         <v>200.42</v>
       </c>
       <c r="G156" t="n">
+        <v>10398</v>
+      </c>
+      <c r="H156" t="n">
         <v>10417.16666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5989,18 +7003,25 @@
         <v>0.0002</v>
       </c>
       <c r="G157" t="n">
+        <v>10395.33333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>10416.33333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,18 +7045,25 @@
         <v>265.103</v>
       </c>
       <c r="G158" t="n">
+        <v>10388.66666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>10414.66666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6059,18 +7087,25 @@
         <v>2.6249</v>
       </c>
       <c r="G159" t="n">
+        <v>10388</v>
+      </c>
+      <c r="H159" t="n">
         <v>10414</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,18 +7129,25 @@
         <v>0.9675</v>
       </c>
       <c r="G160" t="n">
+        <v>10381.33333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>10412.66666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6129,18 +7171,25 @@
         <v>38.839</v>
       </c>
       <c r="G161" t="n">
+        <v>10379.33333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>10411.16666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,18 +7213,25 @@
         <v>20</v>
       </c>
       <c r="G162" t="n">
+        <v>10379.33333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>10410.5</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6199,18 +7255,25 @@
         <v>2.1324</v>
       </c>
       <c r="G163" t="n">
+        <v>10381.33333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>10410.83333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,18 +7297,25 @@
         <v>3.1234</v>
       </c>
       <c r="G164" t="n">
+        <v>10382.66666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>10410</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6269,18 +7339,25 @@
         <v>5.5302</v>
       </c>
       <c r="G165" t="n">
+        <v>10382.66666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>10409.16666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6304,18 +7381,25 @@
         <v>6.5269</v>
       </c>
       <c r="G166" t="n">
+        <v>10379.33333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>10409.33333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6339,18 +7423,25 @@
         <v>119.7</v>
       </c>
       <c r="G167" t="n">
+        <v>10384</v>
+      </c>
+      <c r="H167" t="n">
         <v>10408.66666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6374,18 +7465,25 @@
         <v>15</v>
       </c>
       <c r="G168" t="n">
+        <v>10387.33333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>10407.83333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6409,18 +7507,25 @@
         <v>7</v>
       </c>
       <c r="G169" t="n">
+        <v>10387.33333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>10407.5</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6444,18 +7549,25 @@
         <v>22.4671</v>
       </c>
       <c r="G170" t="n">
+        <v>10387.33333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>10407.33333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6479,18 +7591,25 @@
         <v>29.6875</v>
       </c>
       <c r="G171" t="n">
+        <v>10388</v>
+      </c>
+      <c r="H171" t="n">
         <v>10407.16666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,18 +7633,25 @@
         <v>19.821</v>
       </c>
       <c r="G172" t="n">
+        <v>10391.33333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>10407.5</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6549,18 +7675,25 @@
         <v>199.3691</v>
       </c>
       <c r="G173" t="n">
+        <v>10395.33333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>10408.33333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6584,18 +7717,25 @@
         <v>0.3124</v>
       </c>
       <c r="G174" t="n">
+        <v>10401.33333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>10409.66666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,18 +7759,25 @@
         <v>199.9963</v>
       </c>
       <c r="G175" t="n">
+        <v>10410.66666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>10412</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6654,18 +7801,25 @@
         <v>0.1</v>
       </c>
       <c r="G176" t="n">
+        <v>10423.33333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>10414.5</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6689,18 +7843,25 @@
         <v>19.38</v>
       </c>
       <c r="G177" t="n">
+        <v>10428</v>
+      </c>
+      <c r="H177" t="n">
         <v>10415.66666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6724,18 +7885,25 @@
         <v>187.12</v>
       </c>
       <c r="G178" t="n">
+        <v>10432</v>
+      </c>
+      <c r="H178" t="n">
         <v>10416.83333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6759,18 +7927,25 @@
         <v>0.01</v>
       </c>
       <c r="G179" t="n">
+        <v>10438.66666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>10418.33333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,18 +7969,25 @@
         <v>33.2991</v>
       </c>
       <c r="G180" t="n">
+        <v>10444.66666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>10420</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6829,18 +8011,25 @@
         <v>127.8009</v>
       </c>
       <c r="G181" t="n">
+        <v>10450.66666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>10421.66666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6864,18 +8053,25 @@
         <v>0.01</v>
       </c>
       <c r="G182" t="n">
+        <v>10458</v>
+      </c>
+      <c r="H182" t="n">
         <v>10422.5</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,18 +8095,25 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
+        <v>10464</v>
+      </c>
+      <c r="H183" t="n">
         <v>10423</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6934,18 +8137,25 @@
         <v>301</v>
       </c>
       <c r="G184" t="n">
+        <v>10468.66666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>10423.5</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6969,18 +8179,25 @@
         <v>0.02</v>
       </c>
       <c r="G185" t="n">
+        <v>10474.66666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>10424.33333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7004,18 +8221,25 @@
         <v>11.514</v>
       </c>
       <c r="G186" t="n">
+        <v>10478.66666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>10424.83333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7039,18 +8263,25 @@
         <v>205.7974</v>
       </c>
       <c r="G187" t="n">
+        <v>10480.66666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>10425.5</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7074,18 +8305,25 @@
         <v>30</v>
       </c>
       <c r="G188" t="n">
+        <v>10482</v>
+      </c>
+      <c r="H188" t="n">
         <v>10426.16666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7109,18 +8347,25 @@
         <v>85</v>
       </c>
       <c r="G189" t="n">
+        <v>10481.33333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>10426.83333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7144,18 +8389,25 @@
         <v>0.01</v>
       </c>
       <c r="G190" t="n">
+        <v>10481.33333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>10427.83333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7179,18 +8431,25 @@
         <v>46.9346</v>
       </c>
       <c r="G191" t="n">
+        <v>10476.66666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>10428.33333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7214,18 +8473,25 @@
         <v>11.6885</v>
       </c>
       <c r="G192" t="n">
+        <v>10477.33333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>10429.33333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7249,18 +8515,25 @@
         <v>0.01</v>
       </c>
       <c r="G193" t="n">
+        <v>10480</v>
+      </c>
+      <c r="H193" t="n">
         <v>10430.5</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7284,18 +8557,25 @@
         <v>38.3115</v>
       </c>
       <c r="G194" t="n">
+        <v>10479.33333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>10431.16666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7319,18 +8599,25 @@
         <v>52.6108</v>
       </c>
       <c r="G195" t="n">
+        <v>10479.33333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>10431.66666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7354,18 +8641,25 @@
         <v>4.3673</v>
       </c>
       <c r="G196" t="n">
+        <v>10478.66666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>10432.33333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7389,18 +8683,25 @@
         <v>0.01</v>
       </c>
       <c r="G197" t="n">
+        <v>10479.33333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>10433.66666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,18 +8725,25 @@
         <v>45.2374</v>
       </c>
       <c r="G198" t="n">
+        <v>10479.33333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>10434.16666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7459,18 +8767,25 @@
         <v>51.019</v>
       </c>
       <c r="G199" t="n">
+        <v>10480</v>
+      </c>
+      <c r="H199" t="n">
         <v>10434.83333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7494,18 +8809,25 @@
         <v>137.8508</v>
       </c>
       <c r="G200" t="n">
+        <v>10479.33333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>10435.5</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7529,18 +8851,25 @@
         <v>62.1492</v>
       </c>
       <c r="G201" t="n">
+        <v>10480</v>
+      </c>
+      <c r="H201" t="n">
         <v>10436.16666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7564,18 +8893,25 @@
         <v>22.4709</v>
       </c>
       <c r="G202" t="n">
+        <v>10480</v>
+      </c>
+      <c r="H202" t="n">
         <v>10436.83333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7599,18 +8935,25 @@
         <v>77.5291</v>
       </c>
       <c r="G203" t="n">
+        <v>10480</v>
+      </c>
+      <c r="H203" t="n">
         <v>10436.5</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7634,18 +8977,25 @@
         <v>79.7122</v>
       </c>
       <c r="G204" t="n">
+        <v>10479.33333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>10437.5</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7669,18 +9019,25 @@
         <v>20</v>
       </c>
       <c r="G205" t="n">
+        <v>10477.33333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>10437.66666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,18 +9061,25 @@
         <v>52.8675</v>
       </c>
       <c r="G206" t="n">
+        <v>10476.66666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>10439</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7739,18 +9103,25 @@
         <v>12</v>
       </c>
       <c r="G207" t="n">
+        <v>10476</v>
+      </c>
+      <c r="H207" t="n">
         <v>10440.16666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7774,18 +9145,25 @@
         <v>273.6307</v>
       </c>
       <c r="G208" t="n">
+        <v>10471.33333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>10441.16666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7809,18 +9187,25 @@
         <v>9.9999</v>
       </c>
       <c r="G209" t="n">
+        <v>10470</v>
+      </c>
+      <c r="H209" t="n">
         <v>10442.66666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7844,18 +9229,25 @@
         <v>9.7814</v>
       </c>
       <c r="G210" t="n">
+        <v>10469.33333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>10444</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7879,18 +9271,25 @@
         <v>7.3988</v>
       </c>
       <c r="G211" t="n">
+        <v>10472</v>
+      </c>
+      <c r="H211" t="n">
         <v>10445.16666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7914,18 +9313,25 @@
         <v>38.01</v>
       </c>
       <c r="G212" t="n">
+        <v>10473.33333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>10448.66666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7949,18 +9355,25 @@
         <v>32.98</v>
       </c>
       <c r="G213" t="n">
+        <v>10477.33333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>10452</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7984,18 +9397,25 @@
         <v>170.5299</v>
       </c>
       <c r="G214" t="n">
+        <v>10480</v>
+      </c>
+      <c r="H214" t="n">
         <v>10454</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8019,18 +9439,25 @@
         <v>9</v>
       </c>
       <c r="G215" t="n">
+        <v>10483.33333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>10456.16666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8054,18 +9481,25 @@
         <v>22.7371</v>
       </c>
       <c r="G216" t="n">
+        <v>10486.66666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>10458.33333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8089,18 +9523,25 @@
         <v>530.015</v>
       </c>
       <c r="G217" t="n">
+        <v>10496.66666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>10462.16666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8124,18 +9565,25 @@
         <v>21.82064669722489</v>
       </c>
       <c r="G218" t="n">
+        <v>10504.66666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>10465.5</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8159,18 +9607,25 @@
         <v>284.7785</v>
       </c>
       <c r="G219" t="n">
+        <v>10510</v>
+      </c>
+      <c r="H219" t="n">
         <v>10468</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8194,18 +9649,25 @@
         <v>60.0835</v>
       </c>
       <c r="G220" t="n">
+        <v>10516.66666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>10471.5</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8229,18 +9691,25 @@
         <v>40.9575</v>
       </c>
       <c r="G221" t="n">
+        <v>10527.33333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>10476</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8264,18 +9733,25 @@
         <v>179.3341</v>
       </c>
       <c r="G222" t="n">
+        <v>10539.33333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>10480.16666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8299,18 +9775,25 @@
         <v>1.8542</v>
       </c>
       <c r="G223" t="n">
+        <v>10553.33333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>10484.16666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8334,18 +9817,25 @@
         <v>52.3575</v>
       </c>
       <c r="G224" t="n">
+        <v>10562</v>
+      </c>
+      <c r="H224" t="n">
         <v>10487.5</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8369,18 +9859,25 @@
         <v>27.077</v>
       </c>
       <c r="G225" t="n">
+        <v>10570.66666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>10491</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,18 +9901,25 @@
         <v>5.9137</v>
       </c>
       <c r="G226" t="n">
+        <v>10576</v>
+      </c>
+      <c r="H226" t="n">
         <v>10494.33333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8439,18 +9943,25 @@
         <v>48.6668</v>
       </c>
       <c r="G227" t="n">
+        <v>10584</v>
+      </c>
+      <c r="H227" t="n">
         <v>10498.66666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8474,18 +9985,25 @@
         <v>12</v>
       </c>
       <c r="G228" t="n">
+        <v>10590.66666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>10502.83333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8509,18 +10027,25 @@
         <v>24.1252</v>
       </c>
       <c r="G229" t="n">
+        <v>10597.33333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>10506.5</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8544,18 +10069,25 @@
         <v>9.4</v>
       </c>
       <c r="G230" t="n">
+        <v>10602</v>
+      </c>
+      <c r="H230" t="n">
         <v>10509.83333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8579,18 +10111,25 @@
         <v>145.8248</v>
       </c>
       <c r="G231" t="n">
+        <v>10608.66666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>10513.5</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8614,20 +10153,25 @@
         <v>9</v>
       </c>
       <c r="G232" t="n">
+        <v>10606.66666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>10516</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8649,18 +10193,21 @@
         <v>19.87</v>
       </c>
       <c r="G233" t="n">
+        <v>10608</v>
+      </c>
+      <c r="H233" t="n">
         <v>10518.66666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,18 +10231,21 @@
         <v>4.13</v>
       </c>
       <c r="G234" t="n">
+        <v>10612.66666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>10520.83333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8719,18 +10269,21 @@
         <v>49.9202</v>
       </c>
       <c r="G235" t="n">
+        <v>10616.66666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>10523</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8754,18 +10307,21 @@
         <v>45.95800377358491</v>
       </c>
       <c r="G236" t="n">
+        <v>10619.33333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>10525</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8789,18 +10345,21 @@
         <v>26.9738</v>
       </c>
       <c r="G237" t="n">
+        <v>10619.33333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>10528</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8824,18 +10383,21 @@
         <v>4.1839</v>
       </c>
       <c r="G238" t="n">
+        <v>10616.66666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>10530.33333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8859,18 +10421,21 @@
         <v>20.1402</v>
       </c>
       <c r="G239" t="n">
+        <v>10620</v>
+      </c>
+      <c r="H239" t="n">
         <v>10532.83333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8894,18 +10459,21 @@
         <v>2</v>
       </c>
       <c r="G240" t="n">
+        <v>10621.33333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>10535.16666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8929,18 +10497,21 @@
         <v>86.0635</v>
       </c>
       <c r="G241" t="n">
+        <v>10622</v>
+      </c>
+      <c r="H241" t="n">
         <v>10537.16666666667</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8964,18 +10535,21 @@
         <v>4.4771</v>
       </c>
       <c r="G242" t="n">
+        <v>10619.33333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>10539</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8999,18 +10573,21 @@
         <v>8.6717</v>
       </c>
       <c r="G243" t="n">
+        <v>10617.33333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>10541.16666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9034,18 +10611,21 @@
         <v>163.89</v>
       </c>
       <c r="G244" t="n">
+        <v>10615.33333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>10543.16666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9069,18 +10649,21 @@
         <v>7.52</v>
       </c>
       <c r="G245" t="n">
+        <v>10614.66666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>10544.83333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9104,18 +10687,401 @@
         <v>0.0097</v>
       </c>
       <c r="G246" t="n">
+        <v>10612</v>
+      </c>
+      <c r="H246" t="n">
         <v>10546.83333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C247" t="n">
+        <v>10540</v>
+      </c>
+      <c r="D247" t="n">
+        <v>10540</v>
+      </c>
+      <c r="E247" t="n">
+        <v>10540</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="n">
+        <v>10608</v>
+      </c>
+      <c r="H247" t="n">
+        <v>10547.83333333333</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>10580</v>
+      </c>
+      <c r="C248" t="n">
+        <v>10580</v>
+      </c>
+      <c r="D248" t="n">
+        <v>10580</v>
+      </c>
+      <c r="E248" t="n">
+        <v>10580</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10605.33333333333</v>
+      </c>
+      <c r="H248" t="n">
+        <v>10549.5</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>10540</v>
+      </c>
+      <c r="C249" t="n">
+        <v>10570</v>
+      </c>
+      <c r="D249" t="n">
+        <v>10570</v>
+      </c>
+      <c r="E249" t="n">
+        <v>10530</v>
+      </c>
+      <c r="F249" t="n">
+        <v>72.7452</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10602</v>
+      </c>
+      <c r="H249" t="n">
+        <v>10551</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>10550</v>
+      </c>
+      <c r="C250" t="n">
+        <v>10570</v>
+      </c>
+      <c r="D250" t="n">
+        <v>10570</v>
+      </c>
+      <c r="E250" t="n">
+        <v>10550</v>
+      </c>
+      <c r="F250" t="n">
+        <v>18.9602</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10598</v>
+      </c>
+      <c r="H250" t="n">
+        <v>10552.16666666667</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>10580</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10580</v>
+      </c>
+      <c r="D251" t="n">
+        <v>10580</v>
+      </c>
+      <c r="E251" t="n">
+        <v>10580</v>
+      </c>
+      <c r="F251" t="n">
+        <v>35.7716</v>
+      </c>
+      <c r="G251" t="n">
+        <v>10592.66666666667</v>
+      </c>
+      <c r="H251" t="n">
+        <v>10554</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>10580</v>
+      </c>
+      <c r="C252" t="n">
+        <v>10590</v>
+      </c>
+      <c r="D252" t="n">
+        <v>10590</v>
+      </c>
+      <c r="E252" t="n">
+        <v>10580</v>
+      </c>
+      <c r="F252" t="n">
+        <v>87.5595</v>
+      </c>
+      <c r="G252" t="n">
+        <v>10589.33333333333</v>
+      </c>
+      <c r="H252" t="n">
+        <v>10556</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>10560</v>
+      </c>
+      <c r="C253" t="n">
+        <v>10560</v>
+      </c>
+      <c r="D253" t="n">
+        <v>10560</v>
+      </c>
+      <c r="E253" t="n">
+        <v>10560</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100</v>
+      </c>
+      <c r="G253" t="n">
+        <v>10586.66666666667</v>
+      </c>
+      <c r="H253" t="n">
+        <v>10557</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>10560</v>
+      </c>
+      <c r="C254" t="n">
+        <v>10620</v>
+      </c>
+      <c r="D254" t="n">
+        <v>10620</v>
+      </c>
+      <c r="E254" t="n">
+        <v>10560</v>
+      </c>
+      <c r="F254" t="n">
+        <v>20</v>
+      </c>
+      <c r="G254" t="n">
+        <v>10586</v>
+      </c>
+      <c r="H254" t="n">
+        <v>10559.5</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>10560</v>
+      </c>
+      <c r="C255" t="n">
+        <v>10560</v>
+      </c>
+      <c r="D255" t="n">
+        <v>10560</v>
+      </c>
+      <c r="E255" t="n">
+        <v>10560</v>
+      </c>
+      <c r="F255" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G255" t="n">
+        <v>10582.66666666667</v>
+      </c>
+      <c r="H255" t="n">
+        <v>10561</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>10560</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10560</v>
+      </c>
+      <c r="D256" t="n">
+        <v>10560</v>
+      </c>
+      <c r="E256" t="n">
+        <v>10560</v>
+      </c>
+      <c r="F256" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="G256" t="n">
+        <v>10580</v>
+      </c>
+      <c r="H256" t="n">
+        <v>10562.5</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest REP.xlsx
+++ b/BackTest/2019-10-31 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N314"/>
+  <dimension ref="A1:M314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,19 @@
         <v>-622.1804945033751</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>10360</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10360</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1876,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>10360</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1915,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>10360</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,24 +1952,15 @@
         <v>-703.6729945033752</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>10280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2118,24 +1985,15 @@
         <v>-703.6463945033752</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>10250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2160,24 +2018,15 @@
         <v>-793.8990945033752</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>10360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,24 +2051,15 @@
         <v>-840.1272945033752</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>10320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2244,24 +2084,15 @@
         <v>-840.1272945033752</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>10310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2286,24 +2117,15 @@
         <v>-851.1322945033752</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>10310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2328,24 +2150,19 @@
         <v>-851.1322945033752</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>10290</v>
       </c>
       <c r="J53" t="n">
         <v>10290</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2370,24 +2187,23 @@
         <v>-817.6040945033752</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>10290</v>
       </c>
       <c r="J54" t="n">
         <v>10290</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2414,20 +2230,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>10290</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2454,20 +2269,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2492,24 +2300,15 @@
         <v>-851.6421945033752</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>10260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2534,24 +2333,15 @@
         <v>-828.7854945033752</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>10280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2576,24 +2366,15 @@
         <v>-793.2903945033752</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>10290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2618,24 +2399,15 @@
         <v>-700.8075121049226</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>10300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2660,24 +2432,15 @@
         <v>-702.3304121049226</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>10340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2702,24 +2465,15 @@
         <v>-434.5570121049226</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>10330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2744,24 +2498,15 @@
         <v>-447.9086121049227</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>10390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2786,24 +2531,15 @@
         <v>-546.1139121049226</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>10370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2828,24 +2564,15 @@
         <v>-941.7260121049226</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2870,24 +2597,15 @@
         <v>-932.6242121049225</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>10210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2912,24 +2630,15 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>10320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2954,24 +2663,15 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>10330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2996,24 +2696,15 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>10330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3038,24 +2729,21 @@
         <v>-884.5419121049226</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>10330</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3080,24 +2768,21 @@
         <v>-854.5419121049226</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>10340</v>
       </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3122,24 +2807,19 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3164,24 +2844,19 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3206,24 +2881,19 @@
         <v>-761.5439121049227</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3248,24 +2918,19 @@
         <v>-796.3139121049227</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>10390</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3290,24 +2955,19 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3332,24 +2992,19 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3374,24 +3029,19 @@
         <v>22.92898789507728</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3418,20 +3068,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3458,20 +3105,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3498,20 +3142,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3538,20 +3179,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3578,20 +3216,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3618,20 +3253,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3658,20 +3290,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3698,20 +3327,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3738,20 +3364,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3778,20 +3401,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3818,20 +3438,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3858,20 +3475,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3896,24 +3510,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3940,20 +3549,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3978,24 +3584,21 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>10400</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4022,20 +3625,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4060,22 +3660,21 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4100,24 +3699,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4142,24 +3736,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4184,24 +3773,19 @@
         <v>99.53768789507728</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>10400</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4226,24 +3810,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10420</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4268,24 +3847,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>10440</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4312,20 +3886,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4352,20 +3923,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4390,22 +3958,21 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4432,20 +3999,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4470,22 +4034,21 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4512,20 +4075,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4552,20 +4112,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4592,20 +4149,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4632,20 +4186,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4670,22 +4221,21 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4710,22 +4260,21 @@
         <v>125.3692878950773</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4750,22 +4299,21 @@
         <v>142.5677878950773</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>10410</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4790,22 +4338,21 @@
         <v>138.7192878950773</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4832,20 +4379,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4870,22 +4414,21 @@
         <v>148.7192878950773</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>10410</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4912,20 +4455,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4950,24 +4490,19 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>10410</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4994,20 +4529,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5034,20 +4566,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5074,20 +4603,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5114,20 +4640,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5154,20 +4677,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5194,20 +4714,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5234,20 +4751,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5274,20 +4788,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5314,20 +4825,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5354,20 +4862,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5394,20 +4899,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5434,20 +4936,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5474,20 +4973,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5514,20 +5010,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5554,20 +5047,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5594,20 +5084,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5634,20 +5121,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5674,20 +5158,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5714,20 +5195,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5754,20 +5232,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5794,18 +5269,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5832,16 +5306,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5868,16 +5343,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5904,16 +5380,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5940,16 +5417,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5974,18 +5452,19 @@
         <v>228.9314878950773</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6012,16 +5491,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6048,16 +5528,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6084,16 +5565,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6120,16 +5602,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6156,16 +5639,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6192,16 +5676,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6228,16 +5713,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6262,18 +5748,19 @@
         <v>261.3344878950773</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6300,16 +5787,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6336,16 +5824,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6372,16 +5861,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6406,18 +5896,19 @@
         <v>242.7521878950773</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6442,18 +5933,19 @@
         <v>242.7621878950773</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6480,16 +5972,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6516,16 +6009,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6552,16 +6046,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6588,16 +6083,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6624,16 +6120,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6660,16 +6157,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6696,16 +6194,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6732,16 +6231,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6766,18 +6266,19 @@
         <v>-22.1652121049227</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6802,18 +6303,19 @@
         <v>-22.1552121049227</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6838,18 +6340,19 @@
         <v>-76.72101210492269</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6876,16 +6379,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6912,16 +6416,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6948,16 +6453,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6982,18 +6488,19 @@
         <v>-91.05221210492269</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7020,16 +6527,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7056,16 +6564,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7092,16 +6601,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7126,18 +6636,19 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7162,18 +6673,19 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7198,18 +6710,19 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7236,16 +6749,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7272,16 +6786,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7308,16 +6823,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7344,16 +6860,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7380,16 +6897,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7416,16 +6934,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7452,16 +6971,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7488,16 +7008,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7524,16 +7045,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7560,16 +7082,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7596,16 +7119,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7632,16 +7156,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7668,16 +7193,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7704,16 +7230,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7740,16 +7267,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7776,16 +7304,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7812,16 +7341,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7848,16 +7378,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7884,16 +7415,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7920,16 +7452,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7956,16 +7489,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7992,16 +7526,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8028,16 +7563,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8064,16 +7600,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8100,16 +7637,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8136,16 +7674,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8172,16 +7711,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8208,16 +7748,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8244,16 +7785,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8280,16 +7822,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8316,16 +7859,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8352,16 +7896,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8388,16 +7933,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8424,16 +7970,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8460,16 +8007,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8496,16 +8044,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8532,16 +8081,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8568,16 +8118,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8604,16 +8155,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8640,16 +8192,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8676,16 +8229,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8712,16 +8266,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8748,16 +8303,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8784,16 +8340,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8820,16 +8377,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8856,16 +8414,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8892,16 +8451,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8928,16 +8488,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8964,16 +8525,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8998,18 +8560,21 @@
         <v>-246.0860121049227</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>10380</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9036,16 +8601,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9072,16 +8638,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9108,16 +8675,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9144,16 +8712,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9180,16 +8749,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9216,16 +8786,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9252,16 +8823,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9288,16 +8860,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9322,18 +8895,17 @@
         <v>183.8202878950773</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9360,16 +8932,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9396,16 +8965,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9432,16 +8998,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9468,16 +9031,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9504,16 +9064,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9540,16 +9097,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9576,16 +9130,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9612,16 +9163,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9648,16 +9196,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9684,16 +9229,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9720,16 +9262,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9754,18 +9293,15 @@
         <v>471.6554878950773</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9792,16 +9328,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9828,16 +9361,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9864,16 +9394,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9900,16 +9427,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9936,16 +9460,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9972,16 +9493,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10008,16 +9526,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10044,16 +9559,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10080,16 +9592,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10116,16 +9625,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10152,16 +9658,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10188,16 +9691,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10224,16 +9724,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10258,18 +9755,15 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10294,18 +9788,15 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10330,18 +9821,15 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10366,18 +9854,15 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10402,18 +9887,15 @@
         <v>-13.99941210492273</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10438,18 +9920,15 @@
         <v>-3.999512104922726</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10476,16 +9955,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10512,16 +9988,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10548,16 +10021,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10584,16 +10054,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10620,16 +10087,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10654,18 +10118,15 @@
         <v>-77.35921210492273</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10690,18 +10151,15 @@
         <v>-77.35921210492273</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10728,16 +10186,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10764,16 +10219,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10798,18 +10250,15 @@
         <v>146.0566411978523</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10834,18 +10283,15 @@
         <v>206.1401411978524</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10870,18 +10316,15 @@
         <v>247.0976411978524</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10906,18 +10349,15 @@
         <v>426.4317411978524</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10942,18 +10382,15 @@
         <v>426.4317411978524</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10978,18 +10415,15 @@
         <v>374.0742411978524</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11014,18 +10448,15 @@
         <v>401.1512411978524</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11050,18 +10481,15 @@
         <v>401.1512411978524</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11088,16 +10516,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11124,16 +10549,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11160,16 +10582,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>1</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11196,16 +10615,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11230,18 +10646,15 @@
         <v>550.1176411978524</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11266,18 +10679,15 @@
         <v>541.1176411978524</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11302,18 +10712,15 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11338,18 +10745,15 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11374,18 +10778,15 @@
         <v>610.9078411978525</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11410,18 +10811,15 @@
         <v>656.8658449714374</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11446,18 +10844,15 @@
         <v>629.8920449714374</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11482,18 +10877,15 @@
         <v>625.7081449714374</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11518,18 +10910,15 @@
         <v>645.8483449714374</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11554,18 +10943,15 @@
         <v>643.8483449714374</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11590,18 +10976,15 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11626,18 +11009,15 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11664,16 +11044,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11700,16 +11077,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>1</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11736,16 +11110,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>1</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11772,16 +11143,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>1</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11808,16 +11176,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>1</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11844,16 +11209,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11878,18 +11240,15 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11916,16 +11275,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11952,16 +11308,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11988,16 +11341,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>1</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12024,16 +11374,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>1</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12060,16 +11407,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>1</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12096,16 +11440,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>1</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12132,18 +11473,15 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>1</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest REP.xlsx
+++ b/BackTest/2019-10-31 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1837,14 +1837,10 @@
         <v>-622.1804945033751</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10360</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1877,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1916,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2150,14 +2134,10 @@
         <v>-851.1322945033752</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10290</v>
-      </c>
-      <c r="J53" t="n">
-        <v>10290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2187,19 +2167,11 @@
         <v>-817.6040945033752</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>10290</v>
-      </c>
-      <c r="J54" t="n">
-        <v>10290</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2231,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>10290</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2564,11 +2530,17 @@
         <v>-941.7260121049226</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10250</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2601,7 +2573,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2634,7 +2610,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2667,7 +2647,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2696,11 +2680,17 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10330</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2729,7 +2719,7 @@
         <v>-884.5419121049226</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>10330</v>
@@ -2737,7 +2727,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2768,7 +2758,7 @@
         <v>-854.5419121049226</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>10340</v>
@@ -2807,9 +2797,11 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10350</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2844,9 +2836,11 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10360</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2881,9 +2875,11 @@
         <v>-761.5439121049227</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10360</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2918,9 +2914,11 @@
         <v>-796.3139121049227</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10390</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -2955,9 +2953,11 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10370</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -2992,9 +2992,11 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10400</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3510,9 +3512,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10400</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3584,7 +3588,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>10400</v>
@@ -3660,7 +3664,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>10400</v>
@@ -3699,9 +3703,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10400</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3736,9 +3742,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10400</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3773,9 +3781,11 @@
         <v>99.53768789507728</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10400</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3810,9 +3820,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10420</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3847,9 +3859,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10440</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3884,9 +3898,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10440</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3958,7 +3974,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>10440</v>
@@ -3997,9 +4013,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10440</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4034,11 +4052,9 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>10440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4073,9 +4089,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10440</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4110,9 +4128,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10440</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4221,11 +4241,9 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4260,11 +4278,9 @@
         <v>125.3692878950773</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4299,11 +4315,9 @@
         <v>142.5677878950773</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>10410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4338,11 +4352,9 @@
         <v>138.7192878950773</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4414,11 +4426,9 @@
         <v>148.7192878950773</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>10410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -5452,7 +5462,7 @@
         <v>228.9314878950773</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5748,7 +5758,7 @@
         <v>261.3344878950773</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5896,7 +5906,7 @@
         <v>242.7521878950773</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5933,7 +5943,7 @@
         <v>242.7621878950773</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6266,7 +6276,7 @@
         <v>-22.1652121049227</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6303,7 +6313,7 @@
         <v>-22.1552121049227</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6340,7 +6350,7 @@
         <v>-76.72101210492269</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6488,7 +6498,7 @@
         <v>-91.05221210492269</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6636,7 +6646,7 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6673,7 +6683,7 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6710,7 +6720,7 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -8560,11 +8570,9 @@
         <v>-246.0860121049227</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>10380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8895,16 +8903,18 @@
         <v>183.8202878950773</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
       <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -8934,7 +8944,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8967,7 +8981,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9000,7 +9018,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9055,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9066,7 +9092,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9099,7 +9129,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9132,7 +9166,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9165,7 +9203,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9198,7 +9240,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9231,7 +9277,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9264,7 +9314,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9293,11 +9347,15 @@
         <v>471.6554878950773</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9330,7 +9388,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9363,7 +9425,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9396,7 +9462,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9429,7 +9499,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9462,7 +9536,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9495,7 +9573,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9528,7 +9610,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9561,7 +9647,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9594,7 +9684,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9627,7 +9721,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9660,7 +9758,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9693,7 +9795,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9726,7 +9832,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9755,11 +9865,15 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9788,11 +9902,15 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9821,11 +9939,15 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9854,11 +9976,15 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9887,11 +10013,15 @@
         <v>-13.99941210492273</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +10050,15 @@
         <v>-3.999512104922726</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9957,7 +10091,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9990,7 +10128,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10023,7 +10165,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10056,7 +10202,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10089,7 +10239,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +10272,15 @@
         <v>-77.35921210492273</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10151,11 +10309,15 @@
         <v>-77.35921210492273</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10350,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10221,7 +10387,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +10420,15 @@
         <v>146.0566411978523</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10283,11 +10457,15 @@
         <v>206.1401411978524</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +10494,16 @@
         <v>247.0976411978524</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
@@ -10349,7 +10529,7 @@
         <v>426.4317411978524</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10382,7 +10562,7 @@
         <v>426.4317411978524</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10415,7 +10595,7 @@
         <v>374.0742411978524</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10448,7 +10628,7 @@
         <v>401.1512411978524</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10481,7 +10661,7 @@
         <v>401.1512411978524</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10514,7 +10694,7 @@
         <v>449.8180411978524</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10547,7 +10727,7 @@
         <v>437.8180411978524</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10580,7 +10760,7 @@
         <v>413.6928411978524</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10613,7 +10793,7 @@
         <v>404.2928411978524</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10646,7 +10826,7 @@
         <v>550.1176411978524</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10679,7 +10859,7 @@
         <v>541.1176411978524</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10712,7 +10892,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10745,7 +10925,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10778,7 +10958,7 @@
         <v>610.9078411978525</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10811,7 +10991,7 @@
         <v>656.8658449714374</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10844,7 +11024,7 @@
         <v>629.8920449714374</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10877,7 +11057,7 @@
         <v>625.7081449714374</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10910,7 +11090,7 @@
         <v>645.8483449714374</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10943,7 +11123,7 @@
         <v>643.8483449714374</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10976,7 +11156,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11009,7 +11189,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11042,7 +11222,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11075,7 +11255,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11108,7 +11288,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11141,7 +11321,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11174,7 +11354,7 @@
         <v>392.8948449714375</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11207,7 +11387,7 @@
         <v>392.9048449714375</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11240,7 +11420,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11273,7 +11453,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11306,7 +11486,7 @@
         <v>355.9312449714374</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11339,7 +11519,7 @@
         <v>443.4907449714374</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11438,7 +11618,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11471,7 +11651,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11482,6 +11662,6 @@
       <c r="M314" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest REP.xlsx
+++ b/BackTest/2019-10-31 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-64.72909450337515</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-24.72909450337515</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10340</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +860,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +897,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +934,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1008,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1045,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1119,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1156,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1193,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1230,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1267,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1304,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1341,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1378,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1415,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1452,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1489,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1526,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1563,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1600,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1637,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1674,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1711,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1748,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1785,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1822,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1859,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1896,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1933,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1970,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2007,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2044,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2081,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2118,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2155,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2192,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2229,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2266,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2303,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2340,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2377,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2414,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2451,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2488,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2525,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2562,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2599,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2636,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2673,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2710,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2747,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,15 +2780,13 @@
         <v>-941.7260121049226</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2680,11 +2928,9 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>10330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2719,11 +2965,9 @@
         <v>-884.5419121049226</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2758,11 +3002,9 @@
         <v>-854.5419121049226</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2797,11 +3039,9 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>10350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2836,11 +3076,9 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2875,11 +3113,9 @@
         <v>-761.5439121049227</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2914,11 +3150,9 @@
         <v>-796.3139121049227</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -2953,11 +3187,9 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -2992,11 +3224,9 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3401,18 +3631,16 @@
         <v>-72.72531210492272</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3442,11 +3670,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3475,15 +3699,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3512,17 +3732,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3555,11 +3769,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3588,17 +3798,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3631,11 +3835,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3664,17 +3864,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3703,17 +3897,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>10400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3742,17 +3930,11 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3781,17 +3963,11 @@
         <v>99.53768789507728</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3820,17 +3996,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10420</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3859,17 +4029,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3898,17 +4062,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3937,15 +4095,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3974,17 +4128,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>10440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4013,17 +4161,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4052,15 +4194,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4089,17 +4227,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>10440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4128,17 +4260,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>10440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4167,15 +4293,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4204,15 +4326,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4241,15 +4359,11 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4278,15 +4392,11 @@
         <v>125.3692878950773</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4319,11 +4429,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4356,11 +4462,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4393,11 +4495,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4430,11 +4528,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4561,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4504,11 +4594,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4541,11 +4627,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4578,11 +4660,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4615,11 +4693,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4652,11 +4726,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4689,11 +4759,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +4792,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4763,11 +4825,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4800,11 +4858,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4837,11 +4891,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4874,11 +4924,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4911,11 +4957,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4948,11 +4990,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4985,11 +5023,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5022,11 +5056,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5059,11 +5089,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5096,11 +5122,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5133,11 +5155,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5188,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5207,11 +5221,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5244,11 +5254,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5281,11 +5287,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +5320,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5355,11 +5353,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5392,11 +5386,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5429,11 +5419,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5452,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5485,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +5518,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5577,11 +5551,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5614,11 +5584,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5651,11 +5617,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5688,11 +5650,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5683,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5762,11 +5716,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5799,11 +5749,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5836,11 +5782,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5873,11 +5815,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5910,11 +5848,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +5881,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5984,11 +5914,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6021,11 +5947,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6058,11 +5980,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6095,11 +6013,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6132,11 +6046,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6169,11 +6079,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6206,11 +6112,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6243,11 +6145,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6280,11 +6178,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +6211,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6354,11 +6244,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6277,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6428,11 +6310,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6465,11 +6343,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6502,11 +6376,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +6409,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6576,11 +6442,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6613,11 +6475,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6650,11 +6508,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6687,11 +6541,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6724,11 +6574,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6761,11 +6607,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6798,11 +6640,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6835,11 +6673,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6872,11 +6706,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6909,11 +6739,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6946,11 +6772,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6983,11 +6805,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7020,11 +6838,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7057,11 +6871,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7094,11 +6904,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7131,11 +6937,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7168,11 +6970,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7205,11 +7003,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7242,11 +7036,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7279,11 +7069,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7316,11 +7102,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7353,11 +7135,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7390,11 +7168,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7427,11 +7201,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7464,11 +7234,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7501,11 +7267,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7538,11 +7300,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7575,11 +7333,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7366,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7649,11 +7399,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7686,11 +7432,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7723,11 +7465,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7498,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7797,11 +7531,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7834,11 +7564,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7871,11 +7597,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7908,11 +7630,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +7663,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7982,11 +7696,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +7729,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8056,11 +7762,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8093,11 +7795,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8130,11 +7828,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8167,11 +7861,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8204,11 +7894,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8241,11 +7927,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8278,11 +7960,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8315,11 +7993,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8352,11 +8026,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8389,11 +8059,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8426,11 +8092,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8463,11 +8125,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8500,11 +8158,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8537,11 +8191,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8574,11 +8224,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8611,11 +8257,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8648,11 +8290,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8685,11 +8323,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8722,11 +8356,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8759,11 +8389,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8796,11 +8422,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8455,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +8488,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8907,11 +8521,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +8554,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8981,11 +8587,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9018,11 +8620,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +8653,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9092,11 +8686,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9129,11 +8719,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9166,11 +8752,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9203,11 +8785,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9240,11 +8818,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9277,11 +8851,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9314,11 +8884,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9351,11 +8917,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9388,11 +8950,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9425,11 +8983,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9462,11 +9016,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9499,11 +9049,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9536,11 +9082,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9573,11 +9115,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9610,11 +9148,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9647,11 +9181,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9680,15 +9210,11 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9717,15 +9243,11 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9754,15 +9276,11 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9791,15 +9309,11 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9828,15 +9342,11 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9865,15 +9375,11 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9902,15 +9408,11 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9939,15 +9441,11 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9976,15 +9474,11 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10013,15 +9507,11 @@
         <v>-13.99941210492273</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10050,15 +9540,11 @@
         <v>-3.999512104922726</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10091,11 +9577,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10128,11 +9610,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10165,11 +9643,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10202,11 +9676,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10239,11 +9709,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10276,11 +9742,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10313,11 +9775,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10350,11 +9808,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10387,11 +9841,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10424,11 +9874,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10461,11 +9907,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10494,16 +9936,14 @@
         <v>247.0976411978524</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
       <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
@@ -10529,7 +9969,7 @@
         <v>426.4317411978524</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10562,7 +10002,7 @@
         <v>426.4317411978524</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10628,7 +10068,7 @@
         <v>401.1512411978524</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10694,7 +10134,7 @@
         <v>449.8180411978524</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10727,7 +10167,7 @@
         <v>437.8180411978524</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10760,7 +10200,7 @@
         <v>413.6928411978524</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10793,7 +10233,7 @@
         <v>404.2928411978524</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10826,7 +10266,7 @@
         <v>550.1176411978524</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10859,7 +10299,7 @@
         <v>541.1176411978524</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10892,7 +10332,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10925,7 +10365,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10958,7 +10398,7 @@
         <v>610.9078411978525</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10991,7 +10431,7 @@
         <v>656.8658449714374</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11024,7 +10464,7 @@
         <v>629.8920449714374</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11057,7 +10497,7 @@
         <v>625.7081449714374</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11090,7 +10530,7 @@
         <v>645.8483449714374</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11123,7 +10563,7 @@
         <v>643.8483449714374</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11156,7 +10596,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11189,7 +10629,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11222,7 +10662,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11255,7 +10695,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11288,7 +10728,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11321,7 +10761,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11354,7 +10794,7 @@
         <v>392.8948449714375</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11387,7 +10827,7 @@
         <v>392.9048449714375</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11420,7 +10860,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11453,7 +10893,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11486,7 +10926,7 @@
         <v>355.9312449714374</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11519,7 +10959,7 @@
         <v>443.4907449714374</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11618,7 +11058,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11651,7 +11091,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11662,6 +11102,6 @@
       <c r="M314" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest REP.xlsx
+++ b/BackTest/2019-10-31 BackTest REP.xlsx
@@ -451,7 +451,7 @@
         <v>-64.72909450337515</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-24.72909450337515</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1600,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1637,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1674,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1748,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2525,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2562,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2599,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,15 +2431,15 @@
         <v>-434.5570121049226</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10330</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2709,10 +2471,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>10330</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2743,10 +2507,14 @@
         <v>-546.1139121049226</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10370</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10330</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2780,10 +2548,14 @@
         <v>-941.7260121049226</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10250</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10330</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2817,10 +2589,14 @@
         <v>-932.6242121049225</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10210</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10330</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2854,10 +2630,14 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10320</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10330</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2894,7 +2674,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>10330</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2931,7 +2713,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>10330</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,10 +2749,14 @@
         <v>-884.5419121049226</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10330</v>
+      </c>
+      <c r="J70" t="n">
+        <v>10330</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3002,10 +2790,14 @@
         <v>-854.5419121049226</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10340</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10330</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,10 +2831,14 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10350</v>
+      </c>
+      <c r="J72" t="n">
+        <v>10330</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,10 +2872,14 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10360</v>
+      </c>
+      <c r="J73" t="n">
+        <v>10330</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,10 +2913,14 @@
         <v>-761.5439121049227</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10360</v>
+      </c>
+      <c r="J74" t="n">
+        <v>10330</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,10 +2954,14 @@
         <v>-796.3139121049227</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10390</v>
+      </c>
+      <c r="J75" t="n">
+        <v>10330</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3187,10 +2995,14 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10370</v>
+      </c>
+      <c r="J76" t="n">
+        <v>10330</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,10 +3036,14 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J77" t="n">
+        <v>10330</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3261,10 +3077,14 @@
         <v>22.92898789507728</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10330</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,7 +3121,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10330</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3338,7 +3160,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10330</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,10 +3196,14 @@
         <v>22.92898789507728</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10440</v>
+      </c>
+      <c r="J81" t="n">
+        <v>10330</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,7 +3240,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10330</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3449,7 +3279,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10330</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,7 +3318,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10330</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3523,7 +3357,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10330</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3560,7 +3396,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10330</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,7 +3435,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10330</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,16 +3471,20 @@
         <v>-72.72531210492272</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10330</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3669,8 +3513,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3699,11 +3549,17 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3732,11 +3588,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3765,11 +3629,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3798,11 +3670,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J93" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3831,11 +3711,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3864,11 +3752,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3897,11 +3793,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J96" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3930,11 +3834,19 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J97" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3963,11 +3875,19 @@
         <v>99.53768789507728</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10400</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +3916,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10420</v>
+      </c>
+      <c r="J99" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4029,11 +3957,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10440</v>
+      </c>
+      <c r="J100" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3998,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10440</v>
+      </c>
+      <c r="J101" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +4039,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10440</v>
+      </c>
+      <c r="J102" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4128,11 +4080,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10440</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4161,11 +4121,17 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4194,11 +4160,19 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10440</v>
+      </c>
+      <c r="J105" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +4201,17 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4260,11 +4240,17 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4293,11 +4279,17 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4326,11 +4318,17 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4359,11 +4357,17 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +4396,17 @@
         <v>125.3692878950773</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4428,8 +4438,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4461,8 +4477,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4494,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4527,8 +4555,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4560,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4593,8 +4633,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4626,8 +4672,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +4711,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +4750,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4725,8 +4789,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4758,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4791,8 +4867,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4824,8 +4906,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4857,8 +4945,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4890,8 +4984,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4923,8 +5023,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4956,8 +5062,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4989,8 +5101,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5022,8 +5140,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5055,8 +5179,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5088,8 +5218,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5121,8 +5257,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5154,8 +5296,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5187,8 +5335,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5220,8 +5374,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5253,8 +5413,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5286,8 +5452,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5319,8 +5491,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5352,8 +5530,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5385,8 +5569,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5418,8 +5608,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5451,8 +5647,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5484,8 +5686,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5517,8 +5725,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5550,8 +5764,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5583,8 +5803,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5616,8 +5842,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5649,8 +5881,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5682,8 +5920,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5715,8 +5959,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5748,8 +5998,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5781,8 +6037,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5814,8 +6076,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5880,8 +6154,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5913,8 +6193,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5946,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5979,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6012,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6045,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6078,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6111,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6144,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6177,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6210,8 +6544,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6243,8 +6583,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6276,8 +6622,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6309,8 +6661,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6342,8 +6700,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6375,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6408,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6441,8 +6817,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6474,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6507,8 +6895,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6540,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6573,8 +6973,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6606,8 +7012,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6639,8 +7051,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6672,8 +7090,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6705,8 +7129,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6738,8 +7168,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6771,8 +7207,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6804,8 +7246,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6837,8 +7285,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6870,8 +7324,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6903,8 +7363,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6936,8 +7402,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6969,8 +7441,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7480,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7035,8 +7519,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7068,8 +7558,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7101,8 +7597,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7134,8 +7636,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7167,8 +7675,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7200,8 +7714,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7233,8 +7753,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7266,8 +7792,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7299,8 +7831,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7332,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7365,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7398,8 +7948,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7431,8 +7987,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7464,8 +8026,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7497,8 +8065,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7530,8 +8104,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7563,8 +8143,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7596,8 +8182,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7629,8 +8221,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7662,8 +8260,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7695,8 +8299,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7728,8 +8338,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7761,8 +8377,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7794,8 +8416,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7827,8 +8455,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7860,8 +8494,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7893,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7926,8 +8572,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7959,8 +8611,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7992,8 +8650,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8025,8 +8689,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8058,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8091,8 +8767,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8124,8 +8806,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +8845,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8190,8 +8884,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8223,8 +8923,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8256,8 +8962,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8289,8 +9001,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8322,8 +9040,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8355,8 +9079,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8388,8 +9118,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8421,8 +9157,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8454,8 +9196,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8487,8 +9235,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8520,8 +9274,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8553,8 +9313,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8586,8 +9352,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8619,8 +9391,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8652,8 +9430,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8685,8 +9469,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8718,8 +9508,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8751,8 +9547,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8784,8 +9586,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8817,8 +9625,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8850,8 +9664,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8883,8 +9703,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8916,8 +9742,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8949,8 +9781,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8982,8 +9820,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9015,8 +9859,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9048,8 +9898,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9081,8 +9937,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9114,8 +9976,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9147,8 +10015,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9180,8 +10054,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9210,11 +10090,17 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9243,11 +10129,17 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9276,11 +10168,17 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9309,11 +10207,17 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9342,11 +10246,17 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9375,11 +10285,17 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9408,11 +10324,17 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9441,11 +10363,17 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9474,11 +10402,17 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9507,11 +10441,17 @@
         <v>-13.99941210492273</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +10480,17 @@
         <v>-3.999512104922726</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9576,8 +10522,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9609,8 +10561,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9642,8 +10600,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9675,8 +10639,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9708,8 +10678,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9741,8 +10717,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9774,8 +10756,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9807,8 +10795,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9840,8 +10834,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9873,8 +10873,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9906,8 +10912,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9939,8 +10951,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9972,8 +10990,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10005,8 +11029,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10038,8 +11068,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10071,8 +11107,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10104,8 +11146,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10137,8 +11185,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10170,8 +11224,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10200,13 +11260,19 @@
         <v>413.6928411978524</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L287" t="n">
-        <v>1</v>
+        <v>1.023073572120039</v>
       </c>
       <c r="M287" t="inlineStr"/>
     </row>
@@ -10233,7 +11299,7 @@
         <v>404.2928411978524</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10266,7 +11332,7 @@
         <v>550.1176411978524</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10299,7 +11365,7 @@
         <v>541.1176411978524</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10332,7 +11398,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10365,7 +11431,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10398,7 +11464,7 @@
         <v>610.9078411978525</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10431,7 +11497,7 @@
         <v>656.8658449714374</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10464,7 +11530,7 @@
         <v>629.8920449714374</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10497,7 +11563,7 @@
         <v>625.7081449714374</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10530,7 +11596,7 @@
         <v>645.8483449714374</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10563,7 +11629,7 @@
         <v>643.8483449714374</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10596,7 +11662,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10629,7 +11695,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10662,7 +11728,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10695,7 +11761,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10728,7 +11794,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10761,7 +11827,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10794,7 +11860,7 @@
         <v>392.8948449714375</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10827,7 +11893,7 @@
         <v>392.9048449714375</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10860,7 +11926,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10893,7 +11959,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10926,7 +11992,7 @@
         <v>355.9312449714374</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10959,7 +12025,7 @@
         <v>443.4907449714374</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10992,7 +12058,7 @@
         <v>343.4907449714374</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11025,7 +12091,7 @@
         <v>363.4907449714374</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11058,7 +12124,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11091,7 +12157,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
